--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44803</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43739</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44537</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43735</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44895</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45057</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43759</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43895</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44188</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44825</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44392</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44403</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43700</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43951</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44344</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44393</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44477</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44839</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44876</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43623</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43729</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43775</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43797</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44060</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44390</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44500</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44743</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>44762</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44830</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44900</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44907</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44945</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44977</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45013</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45049</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45051</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>45072</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45093</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45103</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45105</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43621</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43728</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43730</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44151</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44564</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44655</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44659</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44726</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44742</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44862</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44872</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44918</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44930</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44996</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45028</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45049</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45058</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45072</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45084</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45084</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45092</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43325</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43363</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43392</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43392</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43392</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43397</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43403</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43403</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43413</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43413</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43415</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43416</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43417</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43420</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43432</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43433</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43437</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43438</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>43445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43447</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43462</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>43483</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>43497</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43503</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43508</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43509</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43535</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43542</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43543</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43565</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43567</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>43567</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43570</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43578</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43580</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43580</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43580</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43581</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43589</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>43593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43602</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>43609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43612</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43633</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>43635</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43635</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43636</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>43647</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43649</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43659</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43664</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>43675</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43686</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43697</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43697</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>43698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>43699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43705</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>43714</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43714</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>43720</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43720</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>43731</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>43732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43735</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43735</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43735</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43739</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>43739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>43739</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>43746</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>43748</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>43749</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43762</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43767</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43768</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43770</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43776</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43780</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43796</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>43801</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43811</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43826</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43833</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43854</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>43866</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>43868</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>43872</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>43872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>43872</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43881</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>43906</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>43913</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43913</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>43915</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>43920</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>43921</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>43921</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>43921</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43924</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>43927</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>43937</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>43943</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>43945</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>43948</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43955</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>43955</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>43959</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>43962</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>43976</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>43976</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43978</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>43980</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43984</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43984</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>43985</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>43985</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>43991</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43991</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>43997</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>43997</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44004</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44004</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44007</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44007</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>44013</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>44015</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>44018</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44026</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>44034</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44036</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44036</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44041</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44041</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44042</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44046</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44046</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44046</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44050</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44053</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44057</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44060</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44061</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44062</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44062</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44062</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44063</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44067</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>44067</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>44068</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>44071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44075</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44075</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44075</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44078</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44078</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44083</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44084</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44088</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44090</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44098</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>44098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44098</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44103</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44120</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44124</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44124</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44126</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44130</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44131</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44131</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44137</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44137</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44137</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>44138</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>44138</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44138</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>44148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44154</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44154</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44154</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>44158</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44158</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44161</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44162</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44168</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44168</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44169</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44169</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44176</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44179</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44179</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44181</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44181</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44181</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44186</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44187</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44207</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44209</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44215</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44215</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44215</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>44216</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44224</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44229</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44230</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44231</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44232</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44254</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44258</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44260</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44273</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44277</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44280</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>44287</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44291</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44293</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44293</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44294</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44295</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44301</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44308</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>44316</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>44319</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>44320</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>44321</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>44323</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>44328</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>44336</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44341</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>44344</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>44348</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44348</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44350</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44350</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44356</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44356</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44356</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>44357</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44357</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44361</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44361</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44362</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44362</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44363</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44368</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44371</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44376</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44377</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>44379</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44382</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44392</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44397</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>44397</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44398</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33157,7 +33157,7 @@
         <v>44403</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>44405</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44405</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44407</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>44411</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44417</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44420</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44424</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44426</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44433</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44434</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44434</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44445</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44445</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44446</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44447</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>44448</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>44455</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         <v>44468</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>44469</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>44470</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>44473</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>44477</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>44480</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44480</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44503</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44503</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44504</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44508</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44508</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44517</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44526</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>44526</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35899,7 +35899,7 @@
         <v>44537</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44537</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44540</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44540</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44546</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>44571</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>44572</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>44574</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44574</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>44580</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>44582</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44586</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>44587</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>44589</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44590</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>44594</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44601</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44601</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44623</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>44627</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>44628</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>44637</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44638</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>44638</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>44657</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>44657</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44663</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44679</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44679</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>44685</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>44690</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38752,7 +38752,7 @@
         <v>44690</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44691</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44697</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>44700</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44700</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44706</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>44706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>44717</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39461,7 +39461,7 @@
         <v>44720</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
         <v>44720</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44721</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>44726</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>44727</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>44733</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>44734</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>44734</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44738</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>44739</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>44746</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>44755</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>44761</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>44761</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>44764</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>44774</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44774</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>44776</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44777</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44779</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44788</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>44788</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>44789</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
         <v>44792</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41239,7 +41239,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>44798</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44803</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44803</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44804</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44806</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>44806</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44810</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44818</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44818</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44819</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44820</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44820</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44823</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44827</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>44830</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>44831</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44834</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>44837</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42754,7 +42754,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44840</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44840</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44841</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>44844</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>44845</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44845</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44847</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44848</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44849</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44851</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>44853</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44859</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44862</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>44865</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44866</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>44867</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>44869</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>44872</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>44873</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>44874</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44876</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45035,7 +45035,7 @@
         <v>44879</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>44880</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45154,7 +45154,7 @@
         <v>44881</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>44882</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>44883</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45397,7 +45397,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45454,7 +45454,7 @@
         <v>44886</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>44887</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44893</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>44894</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>44902</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>44906</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>44907</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>44908</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>44909</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44911</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>44916</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>44929</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>44930</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>44939</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>44945</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>44950</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>44951</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>44954</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>44955</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47239,7 +47239,7 @@
         <v>44956</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>44960</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>44964</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>44967</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>44972</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>44974</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>44977</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>44978</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44986</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44988</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>44993</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48052,7 +48052,7 @@
         <v>44995</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44996</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45000</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45001</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45002</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45008</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>45009</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48870,7 +48870,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48932,7 +48932,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45012</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45013</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45021</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>45027</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>45028</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49522,7 +49522,7 @@
         <v>45029</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49584,7 +49584,7 @@
         <v>45030</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49641,7 +49641,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49698,7 +49698,7 @@
         <v>45033</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49755,7 +49755,7 @@
         <v>45034</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49812,7 +49812,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49874,7 +49874,7 @@
         <v>45036</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49931,7 +49931,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49993,7 +49993,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50050,7 +50050,7 @@
         <v>45037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>45040</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50231,7 +50231,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50293,7 +50293,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50350,7 +50350,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45041</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45042</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45043</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45049</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45050</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45051</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51168,7 +51168,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51230,7 +51230,7 @@
         <v>45057</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51292,7 +51292,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51354,7 +51354,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51411,7 +51411,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51473,7 +51473,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51535,7 +51535,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51659,7 +51659,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45058</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52083,7 +52083,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45061</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52264,7 +52264,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52378,7 +52378,7 @@
         <v>45065</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45068</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
         <v>45069</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45071</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45072</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52931,7 +52931,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52993,7 +52993,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45075</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45077</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53303,7 +53303,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53427,7 +53427,7 @@
         <v>45078</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53489,7 +53489,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53551,7 +53551,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53727,7 +53727,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53784,7 +53784,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54027,7 +54027,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54089,7 +54089,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54265,7 +54265,7 @@
         <v>45087</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54327,7 +54327,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45088</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54446,7 +54446,7 @@
         <v>45089</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>45091</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54818,7 +54818,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54875,7 +54875,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54932,7 +54932,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54989,7 +54989,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55051,7 +55051,7 @@
         <v>45104</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>45105</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55408,7 +55408,7 @@
         <v>45107</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55465,7 +55465,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55522,7 +55522,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55636,7 +55636,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55760,7 +55760,7 @@
         <v>45120</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55822,7 +55822,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55884,7 +55884,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55946,7 +55946,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56008,7 +56008,7 @@
         <v>45133</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56070,7 +56070,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56132,7 +56132,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56194,7 +56194,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56375,7 +56375,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56432,7 +56432,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56494,7 +56494,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56551,7 +56551,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56613,7 +56613,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56670,7 +56670,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56727,7 +56727,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56784,7 +56784,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56841,7 +56841,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56903,7 +56903,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56965,7 +56965,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57022,7 +57022,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57079,7 +57079,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57136,7 +57136,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44803</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43739</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44537</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43735</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44895</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45057</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43759</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43895</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44188</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44825</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44392</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44403</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43700</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43951</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44344</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44393</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44477</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44839</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44876</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43623</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43729</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43775</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43797</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44060</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44390</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44500</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44743</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>44762</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44830</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44900</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44907</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44945</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44977</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45013</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45049</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45051</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>45072</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45093</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45103</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45105</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43621</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43728</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43730</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44151</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44564</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44655</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44659</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44726</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44742</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44862</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44872</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44918</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44930</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44996</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45028</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45049</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45058</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45072</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45084</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45084</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45092</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43325</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43363</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43392</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43392</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43392</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43397</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43403</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43403</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43413</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43413</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43415</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43416</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43417</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43420</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43432</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43433</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43437</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43438</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>43445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43447</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43462</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>43483</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>43497</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43503</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43508</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43509</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43535</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43542</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43543</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43565</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43567</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>43567</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43570</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43578</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43580</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43580</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43580</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43581</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43589</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>43593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43602</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>43609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43612</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43633</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>43635</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43635</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43636</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>43647</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43649</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43659</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43664</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>43675</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43686</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43697</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43697</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>43698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>43699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43705</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>43714</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43714</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>43720</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43720</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>43731</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>43732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43735</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43735</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43735</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43739</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>43739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>43739</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>43746</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>43748</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>43749</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43762</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43767</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43768</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43770</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43776</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43780</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43796</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>43801</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43811</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43826</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43833</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43854</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>43866</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>43868</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>43872</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>43872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>43872</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43881</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>43906</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>43913</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43913</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>43915</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>43920</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>43921</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>43921</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>43921</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43924</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>43927</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>43937</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>43943</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>43945</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>43948</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43955</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>43955</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>43959</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>43962</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>43976</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>43976</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43978</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>43980</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43984</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43984</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>43985</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>43985</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>43991</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43991</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>43997</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>43997</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44004</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44004</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44007</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44007</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>44013</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>44015</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>44018</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44026</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>44034</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44036</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44036</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44041</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44041</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44042</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44046</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44046</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44046</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44050</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44053</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44057</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44060</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44061</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44062</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44062</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44062</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44063</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44067</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>44067</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>44068</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>44071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44075</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44075</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44075</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44078</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44078</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44083</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44084</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44088</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44090</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44098</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>44098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44098</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44103</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44120</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44124</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44124</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44126</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44130</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44131</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44131</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44137</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44137</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44137</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>44138</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>44138</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44138</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>44148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44154</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44154</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44154</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>44158</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44158</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44161</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44162</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44168</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44168</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44169</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44169</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44176</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44179</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44179</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44181</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44181</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44181</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44186</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44187</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44207</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44209</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44215</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44215</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44215</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>44216</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44224</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44229</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44230</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44231</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44232</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44254</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44258</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44260</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44273</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44277</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44280</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>44287</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44291</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44293</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44293</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44294</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44295</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44301</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44308</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>44316</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>44319</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>44320</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>44321</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>44323</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>44328</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>44336</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44341</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>44344</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>44348</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44348</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44350</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44350</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44356</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44356</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44356</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>44357</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44357</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44361</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44361</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44362</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44362</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44363</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44368</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44371</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44376</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44377</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>44379</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44382</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44392</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44397</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>44397</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44398</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33157,7 +33157,7 @@
         <v>44403</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>44405</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44405</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44407</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>44411</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44417</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44420</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44424</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44426</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44433</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44434</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44434</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44445</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44445</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44446</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44447</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>44448</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>44455</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         <v>44468</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>44469</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>44470</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>44473</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>44477</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>44480</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44480</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44503</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44503</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44504</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44508</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44508</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44517</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44526</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>44526</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35899,7 +35899,7 @@
         <v>44537</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44537</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44540</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44540</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44546</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>44571</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>44572</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>44574</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44574</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>44580</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>44582</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44586</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>44587</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>44589</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44590</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>44594</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44601</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44601</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44623</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>44627</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>44628</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>44637</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44638</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>44638</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>44657</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>44657</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44663</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44679</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44679</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>44685</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>44690</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38752,7 +38752,7 @@
         <v>44690</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44691</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44697</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>44700</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44700</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44706</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>44706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>44717</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39461,7 +39461,7 @@
         <v>44720</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
         <v>44720</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44721</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>44726</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>44727</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>44733</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>44734</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>44734</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44738</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>44739</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>44746</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>44755</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>44761</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>44761</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>44764</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>44774</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44774</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>44776</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44777</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44779</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44788</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>44788</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>44789</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
         <v>44792</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41239,7 +41239,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>44798</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44803</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44803</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44804</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44806</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>44806</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44810</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44818</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44818</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44819</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44820</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44820</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44823</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44827</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>44830</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>44831</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44834</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>44837</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42754,7 +42754,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44840</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44840</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44841</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>44844</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>44845</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44845</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44847</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44848</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44849</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44851</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>44853</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44859</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44862</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>44865</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44866</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>44867</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>44869</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>44872</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>44873</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>44874</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44876</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45035,7 +45035,7 @@
         <v>44879</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>44880</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45154,7 +45154,7 @@
         <v>44881</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>44882</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>44883</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45397,7 +45397,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45454,7 +45454,7 @@
         <v>44886</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>44887</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44893</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>44894</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>44902</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>44906</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>44907</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>44908</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>44909</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44911</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>44916</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>44929</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>44930</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>44939</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>44945</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>44950</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>44951</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>44954</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>44955</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47239,7 +47239,7 @@
         <v>44956</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>44960</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>44964</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>44967</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>44972</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>44974</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>44977</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>44978</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44986</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44988</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>44993</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48052,7 +48052,7 @@
         <v>44995</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44996</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45000</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45001</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45002</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45008</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>45009</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48870,7 +48870,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48932,7 +48932,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45012</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45013</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45021</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>45027</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>45028</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49522,7 +49522,7 @@
         <v>45029</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49584,7 +49584,7 @@
         <v>45030</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49641,7 +49641,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49698,7 +49698,7 @@
         <v>45033</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49755,7 +49755,7 @@
         <v>45034</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49812,7 +49812,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49874,7 +49874,7 @@
         <v>45036</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49931,7 +49931,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49993,7 +49993,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50050,7 +50050,7 @@
         <v>45037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>45040</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50231,7 +50231,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50293,7 +50293,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50350,7 +50350,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45041</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45042</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45043</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45049</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45050</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45051</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51168,7 +51168,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51230,7 +51230,7 @@
         <v>45057</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51292,7 +51292,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51354,7 +51354,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51411,7 +51411,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51473,7 +51473,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51535,7 +51535,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51659,7 +51659,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45058</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52083,7 +52083,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45061</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52264,7 +52264,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52378,7 +52378,7 @@
         <v>45065</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45068</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
         <v>45069</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45071</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45072</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52931,7 +52931,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52993,7 +52993,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45075</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45077</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53303,7 +53303,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53427,7 +53427,7 @@
         <v>45078</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53489,7 +53489,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53551,7 +53551,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53727,7 +53727,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53784,7 +53784,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54027,7 +54027,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54089,7 +54089,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54265,7 +54265,7 @@
         <v>45087</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54327,7 +54327,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45088</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54446,7 +54446,7 @@
         <v>45089</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>45091</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54818,7 +54818,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54875,7 +54875,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54932,7 +54932,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54989,7 +54989,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55051,7 +55051,7 @@
         <v>45104</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>45105</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55408,7 +55408,7 @@
         <v>45107</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55465,7 +55465,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55522,7 +55522,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55636,7 +55636,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55760,7 +55760,7 @@
         <v>45120</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55822,7 +55822,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55884,7 +55884,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55946,7 +55946,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56008,7 +56008,7 @@
         <v>45133</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56070,7 +56070,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56132,7 +56132,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56194,7 +56194,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56375,7 +56375,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56432,7 +56432,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56494,7 +56494,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56551,7 +56551,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56613,7 +56613,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56670,7 +56670,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56727,7 +56727,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56784,7 +56784,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56841,7 +56841,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56903,7 +56903,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56965,7 +56965,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57022,7 +57022,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57079,7 +57079,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57136,7 +57136,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44803</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43739</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44537</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43735</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44895</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45057</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43759</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43895</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44188</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44825</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44392</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44403</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43700</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43951</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44344</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44393</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44477</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44839</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44876</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43623</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43729</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43775</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43797</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44060</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44390</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44500</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44743</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>44762</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44830</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44900</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44907</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44945</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44977</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45013</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45049</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45051</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>45072</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45093</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45103</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45105</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43621</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43728</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43730</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44151</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44564</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44655</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44659</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44726</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44742</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44862</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44872</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44918</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44930</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44996</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45028</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45049</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45058</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45072</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45084</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45084</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45092</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43325</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43363</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43392</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43392</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43392</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43397</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43403</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43403</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43413</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43413</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43415</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43416</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43417</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43420</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43432</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43433</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43437</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43438</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>43445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43447</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43462</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>43483</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>43497</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43503</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43508</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43509</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43535</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43542</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43543</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43565</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43567</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>43567</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43570</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43578</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43580</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43580</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43580</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43581</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43589</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>43593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43602</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>43609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43612</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43633</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>43635</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43635</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43636</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>43647</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43649</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43659</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43664</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>43675</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43686</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43697</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43697</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>43698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>43699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43705</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>43714</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43714</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>43720</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43720</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>43731</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>43732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43735</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43735</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43735</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43739</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>43739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>43739</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>43746</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>43748</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>43749</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43762</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43767</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43768</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43770</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43776</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43780</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43796</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>43801</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43811</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43826</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43833</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43854</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>43866</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>43868</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>43872</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>43872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>43872</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43881</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>43906</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>43913</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43913</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>43915</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>43920</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>43921</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>43921</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>43921</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43924</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>43927</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>43937</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>43943</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>43945</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>43948</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43955</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>43955</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>43959</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>43962</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>43976</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>43976</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43978</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>43980</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43984</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43984</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>43985</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>43985</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>43991</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43991</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>43997</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>43997</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44004</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44004</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44007</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44007</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>44013</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>44015</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>44018</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44026</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>44034</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44036</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44036</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44041</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44041</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44042</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44046</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44046</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44046</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44050</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44053</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44057</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44060</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44061</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44062</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44062</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44062</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44063</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44067</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>44067</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>44068</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>44071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44075</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44075</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44075</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44078</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44078</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44083</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44084</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44088</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44090</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44098</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>44098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44098</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44103</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44120</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44124</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44124</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44126</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44130</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44131</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44131</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44137</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44137</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44137</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>44138</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>44138</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44138</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>44148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44154</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44154</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44154</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>44158</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44158</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44161</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44162</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44168</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44168</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44169</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44169</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44176</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44179</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44179</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44181</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44181</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44181</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44186</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44187</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44207</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44209</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44215</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44215</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44215</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>44216</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44224</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44229</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44230</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44231</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44232</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44254</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44258</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44260</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44273</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44277</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44280</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>44287</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44291</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44293</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44293</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44294</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44295</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44301</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44308</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>44316</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>44319</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>44320</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>44321</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>44323</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>44328</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>44336</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44341</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>44344</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>44348</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44348</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44350</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44350</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44356</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44356</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44356</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>44357</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44357</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44361</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44361</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44362</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44362</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44363</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44368</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44371</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44376</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44377</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>44379</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44382</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44392</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44397</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>44397</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44398</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33157,7 +33157,7 @@
         <v>44403</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>44405</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44405</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44407</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>44411</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44417</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44420</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44424</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44426</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44433</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44434</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44434</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44445</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44445</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44446</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44447</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>44448</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>44455</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         <v>44468</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>44469</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>44470</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>44473</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>44477</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>44480</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44480</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44503</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44503</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44504</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44508</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44508</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44517</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44526</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>44526</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35899,7 +35899,7 @@
         <v>44537</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44537</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44540</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44540</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44546</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>44571</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>44572</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>44574</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44574</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>44580</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>44582</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44586</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>44587</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>44589</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44590</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>44594</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44601</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44601</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44623</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>44627</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>44628</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>44637</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44638</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>44638</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>44657</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>44657</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44663</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44679</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44679</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>44685</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>44690</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38752,7 +38752,7 @@
         <v>44690</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44691</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44697</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>44700</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44700</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44706</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>44706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>44717</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39461,7 +39461,7 @@
         <v>44720</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
         <v>44720</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44721</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>44726</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>44727</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>44733</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>44734</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>44734</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44738</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>44739</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>44746</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>44755</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>44761</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>44761</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>44764</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>44774</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44774</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>44776</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44777</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44779</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44788</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>44788</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>44789</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
         <v>44792</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41239,7 +41239,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>44798</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44803</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44803</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44804</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44806</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>44806</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44810</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44818</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44818</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44819</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44820</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44820</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44823</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44827</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>44830</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>44831</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44834</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>44837</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42754,7 +42754,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44840</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44840</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44841</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>44844</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>44845</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44845</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44847</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44848</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44849</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44851</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>44853</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44859</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44862</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>44865</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44866</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>44867</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>44869</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>44872</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>44873</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>44874</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44876</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45035,7 +45035,7 @@
         <v>44879</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>44880</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45154,7 +45154,7 @@
         <v>44881</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>44882</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>44883</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45397,7 +45397,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45454,7 +45454,7 @@
         <v>44886</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>44887</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44893</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>44894</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>44902</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>44906</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>44907</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>44908</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>44909</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44911</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>44916</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>44929</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>44930</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>44939</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>44945</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>44950</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>44951</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>44954</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>44955</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47239,7 +47239,7 @@
         <v>44956</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>44960</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>44964</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>44967</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>44972</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>44974</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>44977</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>44978</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44986</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44988</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>44993</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48052,7 +48052,7 @@
         <v>44995</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44996</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45000</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45001</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45002</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45008</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>45009</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48870,7 +48870,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48932,7 +48932,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45012</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45013</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45021</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>45027</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>45028</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49522,7 +49522,7 @@
         <v>45029</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49584,7 +49584,7 @@
         <v>45030</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49641,7 +49641,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49698,7 +49698,7 @@
         <v>45033</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49755,7 +49755,7 @@
         <v>45034</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49812,7 +49812,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49874,7 +49874,7 @@
         <v>45036</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49931,7 +49931,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49993,7 +49993,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50050,7 +50050,7 @@
         <v>45037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>45040</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50231,7 +50231,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50293,7 +50293,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50350,7 +50350,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45041</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45042</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45043</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45049</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45050</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45051</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51168,7 +51168,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51230,7 +51230,7 @@
         <v>45057</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51292,7 +51292,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51354,7 +51354,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51411,7 +51411,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51473,7 +51473,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51535,7 +51535,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51659,7 +51659,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45058</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52083,7 +52083,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45061</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52264,7 +52264,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52378,7 +52378,7 @@
         <v>45065</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45068</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
         <v>45069</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45071</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45072</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52931,7 +52931,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52993,7 +52993,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45075</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45077</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53303,7 +53303,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53427,7 +53427,7 @@
         <v>45078</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53489,7 +53489,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53551,7 +53551,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53727,7 +53727,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53784,7 +53784,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54027,7 +54027,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54089,7 +54089,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54265,7 +54265,7 @@
         <v>45087</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54327,7 +54327,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45088</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54446,7 +54446,7 @@
         <v>45089</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>45091</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54818,7 +54818,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54875,7 +54875,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54932,7 +54932,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54989,7 +54989,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55051,7 +55051,7 @@
         <v>45104</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>45105</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55408,7 +55408,7 @@
         <v>45107</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55465,7 +55465,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55522,7 +55522,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55636,7 +55636,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55760,7 +55760,7 @@
         <v>45120</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55822,7 +55822,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55884,7 +55884,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55946,7 +55946,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56008,7 +56008,7 @@
         <v>45133</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56070,7 +56070,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56132,7 +56132,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56194,7 +56194,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56375,7 +56375,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56432,7 +56432,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56494,7 +56494,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56551,7 +56551,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56613,7 +56613,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56670,7 +56670,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56727,7 +56727,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56784,7 +56784,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56841,7 +56841,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56903,7 +56903,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56965,7 +56965,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57022,7 +57022,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57079,7 +57079,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57136,7 +57136,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44803</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43739</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44537</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43735</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44895</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45057</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43759</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43895</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44188</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44825</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44392</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44403</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43700</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43951</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44344</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44393</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44477</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44839</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44876</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43623</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43729</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43775</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43797</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44060</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44390</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44500</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44743</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>44762</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44830</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44900</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44907</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44945</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44977</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45013</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45049</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45051</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>45072</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45093</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45103</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45105</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43621</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43728</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43730</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44151</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44564</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44655</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44659</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44726</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44742</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44862</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44872</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44918</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44930</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44996</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45028</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45049</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45058</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45072</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45084</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45084</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45092</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43325</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43363</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43392</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43392</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43392</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43397</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43403</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43403</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43413</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43413</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43415</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43416</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43417</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43420</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43432</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43433</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43437</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43438</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>43445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43447</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43462</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>43483</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>43497</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43503</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43508</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43509</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43535</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43542</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43543</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43565</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43567</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>43567</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43570</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43578</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43580</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43580</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43580</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43581</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43589</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>43593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43602</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>43609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43612</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43633</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>43635</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43635</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43636</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>43647</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43649</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43659</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43664</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>43675</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43686</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43697</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43697</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>43698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>43699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43705</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>43714</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43714</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>43720</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43720</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>43731</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>43732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43735</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43735</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43735</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43739</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>43739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>43739</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>43746</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>43748</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>43749</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43762</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43767</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43768</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43770</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43776</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43780</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43796</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>43801</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43811</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43826</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43833</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43854</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>43866</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>43868</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>43872</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>43872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>43872</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43881</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>43906</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>43913</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43913</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>43915</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>43920</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>43921</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>43921</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>43921</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43924</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>43927</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>43937</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>43943</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>43945</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>43948</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43955</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>43955</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>43959</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>43962</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>43976</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>43976</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43978</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>43980</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43984</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43984</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>43985</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>43985</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>43991</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43991</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>43997</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>43997</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44004</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44004</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44007</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44007</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>44013</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>44015</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>44018</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44026</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>44034</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44036</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44036</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44041</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44041</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44042</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44046</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44046</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44046</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44050</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44053</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44057</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44060</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44061</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44062</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44062</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44062</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44063</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44067</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>44067</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>44068</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>44071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44075</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44075</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44075</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44078</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44078</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44083</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44084</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44088</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44090</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44098</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>44098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44098</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44103</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44120</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44124</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44124</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44126</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44130</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44131</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44131</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44137</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44137</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44137</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>44138</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>44138</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44138</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>44148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44154</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44154</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44154</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>44158</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44158</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44161</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44162</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44168</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44168</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44169</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44169</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44176</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44179</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44179</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44181</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44181</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44181</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44186</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44187</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44207</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44209</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44215</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44215</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44215</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>44216</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44224</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44229</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44230</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44231</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44232</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44254</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44258</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44260</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44273</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44277</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44280</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>44287</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44291</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44293</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44293</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44294</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44295</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44301</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44308</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>44316</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>44319</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>44320</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>44321</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>44323</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>44328</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>44336</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44341</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>44344</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>44348</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44348</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44350</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44350</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44356</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44356</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44356</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>44357</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44357</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44361</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44361</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44362</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44362</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44363</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44368</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44371</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44376</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44377</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>44379</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44382</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44392</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44397</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>44397</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44398</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33157,7 +33157,7 @@
         <v>44403</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>44405</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44405</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44407</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>44411</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44417</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44420</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44424</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44426</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44433</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44434</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44434</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44445</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44445</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44446</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44447</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>44448</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>44455</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         <v>44468</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>44469</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>44470</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>44473</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>44477</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>44480</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44480</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44503</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44503</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44504</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44508</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44508</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44517</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44526</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>44526</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35899,7 +35899,7 @@
         <v>44537</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44537</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44540</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44540</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44546</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>44571</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>44572</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>44574</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44574</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>44580</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>44582</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44586</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>44587</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>44589</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44590</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>44594</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44601</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44601</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44623</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>44627</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>44628</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>44637</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44638</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>44638</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>44657</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>44657</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44663</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44679</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44679</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>44685</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>44690</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38752,7 +38752,7 @@
         <v>44690</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44691</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44697</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>44700</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44700</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44706</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>44706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>44717</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39461,7 +39461,7 @@
         <v>44720</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
         <v>44720</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44721</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>44726</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>44727</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>44733</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>44734</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>44734</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44738</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>44739</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>44746</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>44755</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>44761</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>44761</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>44764</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>44774</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44774</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>44776</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44777</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44779</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44788</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>44788</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>44789</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
         <v>44792</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41239,7 +41239,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>44798</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44803</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44803</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44804</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44806</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>44806</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44810</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44818</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44818</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44819</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44820</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44820</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44823</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44827</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>44830</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>44831</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44834</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>44837</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42754,7 +42754,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44840</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44840</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44841</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>44844</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>44845</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44845</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44847</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44848</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44849</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44851</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>44853</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44859</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44862</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>44865</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44866</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>44867</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>44869</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>44872</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>44873</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>44874</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44876</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45035,7 +45035,7 @@
         <v>44879</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>44880</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45154,7 +45154,7 @@
         <v>44881</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>44882</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>44883</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45397,7 +45397,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45454,7 +45454,7 @@
         <v>44886</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>44887</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44893</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>44894</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>44902</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>44906</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>44907</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>44908</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>44909</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44911</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>44916</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>44929</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>44930</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>44939</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>44945</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>44950</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>44951</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>44954</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>44955</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47239,7 +47239,7 @@
         <v>44956</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>44960</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>44964</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>44967</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>44972</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>44974</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>44977</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>44978</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44986</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44988</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>44993</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48052,7 +48052,7 @@
         <v>44995</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44996</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45000</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45001</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45002</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45008</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>45009</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48870,7 +48870,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48932,7 +48932,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45012</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45013</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45021</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>45027</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>45028</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49522,7 +49522,7 @@
         <v>45029</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49584,7 +49584,7 @@
         <v>45030</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49641,7 +49641,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49698,7 +49698,7 @@
         <v>45033</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49755,7 +49755,7 @@
         <v>45034</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49812,7 +49812,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49874,7 +49874,7 @@
         <v>45036</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49931,7 +49931,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49993,7 +49993,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50050,7 +50050,7 @@
         <v>45037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>45040</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50231,7 +50231,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50293,7 +50293,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50350,7 +50350,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45041</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45042</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45043</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45049</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45050</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45051</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51168,7 +51168,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51230,7 +51230,7 @@
         <v>45057</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51292,7 +51292,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51354,7 +51354,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51411,7 +51411,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51473,7 +51473,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51535,7 +51535,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51659,7 +51659,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45058</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52083,7 +52083,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45061</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52264,7 +52264,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52378,7 +52378,7 @@
         <v>45065</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45068</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
         <v>45069</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45071</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45072</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52931,7 +52931,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52993,7 +52993,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45075</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45077</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53303,7 +53303,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53427,7 +53427,7 @@
         <v>45078</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53489,7 +53489,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53551,7 +53551,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53727,7 +53727,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53784,7 +53784,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54027,7 +54027,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54089,7 +54089,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54265,7 +54265,7 @@
         <v>45087</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54327,7 +54327,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45088</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54446,7 +54446,7 @@
         <v>45089</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>45091</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54818,7 +54818,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54875,7 +54875,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54932,7 +54932,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54989,7 +54989,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55051,7 +55051,7 @@
         <v>45104</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>45105</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55408,7 +55408,7 @@
         <v>45107</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55465,7 +55465,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55522,7 +55522,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55636,7 +55636,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55760,7 +55760,7 @@
         <v>45120</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55822,7 +55822,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55884,7 +55884,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55946,7 +55946,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56008,7 +56008,7 @@
         <v>45133</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56070,7 +56070,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56132,7 +56132,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56194,7 +56194,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56375,7 +56375,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56432,7 +56432,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56494,7 +56494,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56551,7 +56551,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56613,7 +56613,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56670,7 +56670,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56727,7 +56727,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56784,7 +56784,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56841,7 +56841,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56903,7 +56903,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56965,7 +56965,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57022,7 +57022,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57079,7 +57079,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57136,7 +57136,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44803</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43739</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44537</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43735</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44895</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45057</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43759</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43895</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44188</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44825</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44392</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44403</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43700</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43951</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44344</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44393</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44477</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44839</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44876</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43623</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43729</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43775</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43797</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44060</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44390</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44500</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44743</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>44762</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44830</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44900</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44907</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44945</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44977</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45013</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45049</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45051</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>45072</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45093</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45103</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45105</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43621</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43728</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43730</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44151</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44564</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44655</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44659</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44726</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44742</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44862</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44872</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44918</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44930</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44996</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45028</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45049</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45058</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45072</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45084</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45084</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45092</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43325</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43363</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43392</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43392</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43392</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43397</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43403</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43403</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43413</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43413</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43415</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43416</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43417</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43420</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43432</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43433</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43437</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43438</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>43445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43447</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43462</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>43483</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>43497</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43503</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43508</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43509</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43535</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43542</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43543</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43565</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43567</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>43567</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43570</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43578</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43580</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43580</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43580</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43581</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43589</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>43593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43602</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>43609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43612</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43633</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>43635</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43635</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43636</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>43647</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43649</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43659</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43664</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>43675</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43686</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43697</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43697</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>43698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>43699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43705</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>43714</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43714</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>43720</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43720</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>43731</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>43732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43735</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43735</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43735</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43739</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>43739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>43739</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>43746</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>43748</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>43749</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43762</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43767</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43768</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43770</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43776</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43780</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43796</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>43801</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43811</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43826</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43833</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43854</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>43866</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>43868</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>43872</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>43872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>43872</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43881</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>43906</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>43913</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43913</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>43915</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>43920</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>43921</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>43921</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>43921</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43924</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>43927</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>43937</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>43943</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>43945</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>43948</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43955</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>43955</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>43959</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>43962</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>43976</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>43976</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43978</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>43980</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43984</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43984</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>43985</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>43985</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>43991</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43991</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>43997</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>43997</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44004</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44004</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44007</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44007</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>44013</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>44015</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>44018</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44026</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>44034</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44036</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44036</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44041</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44041</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44042</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44046</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44046</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44046</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44050</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44053</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44057</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44060</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44061</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44062</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44062</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44062</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44063</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44067</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>44067</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>44068</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>44071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44075</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44075</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44075</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44078</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44078</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44083</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44084</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44088</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44090</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44098</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>44098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44098</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44103</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44120</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44124</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44124</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44126</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44130</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44131</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44131</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44137</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44137</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44137</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>44138</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>44138</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44138</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>44148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44154</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44154</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44154</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>44158</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44158</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44161</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44162</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44168</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44168</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44169</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44169</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44176</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44179</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44179</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44181</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44181</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44181</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44186</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44187</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44207</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44209</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44215</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44215</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44215</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>44216</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44224</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44229</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44230</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44231</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44232</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44254</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44258</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44260</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44273</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44277</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44280</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>44287</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44291</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44293</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44293</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44294</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44295</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44301</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44308</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>44316</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>44319</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>44320</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>44321</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>44323</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>44328</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>44336</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44341</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>44344</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>44348</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44348</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44350</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44350</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44356</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44356</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44356</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>44357</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44357</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44361</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44361</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44362</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44362</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44363</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44368</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44371</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44376</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44377</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>44379</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44382</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44392</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44397</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>44397</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44398</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33157,7 +33157,7 @@
         <v>44403</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>44405</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44405</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44407</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>44411</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44417</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44420</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44424</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44426</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44433</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44434</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44434</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44445</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44445</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44446</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44447</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>44448</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>44455</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         <v>44468</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>44469</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>44470</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>44473</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>44477</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>44480</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44480</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44503</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44503</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44504</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44508</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44508</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44517</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44526</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>44526</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35899,7 +35899,7 @@
         <v>44537</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44537</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44540</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44540</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44546</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>44571</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>44572</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>44574</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44574</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>44580</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>44582</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44586</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>44587</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>44589</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44590</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>44594</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44601</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44601</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44623</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>44627</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>44628</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>44637</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44638</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>44638</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>44657</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>44657</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44663</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44679</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44679</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>44685</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>44690</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38752,7 +38752,7 @@
         <v>44690</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44691</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44697</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>44700</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44700</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44706</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>44706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>44717</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39461,7 +39461,7 @@
         <v>44720</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
         <v>44720</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44721</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>44726</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>44727</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>44733</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>44734</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>44734</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44738</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>44739</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>44746</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>44755</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>44761</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>44761</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>44764</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>44774</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44774</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>44776</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44777</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44779</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44788</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>44788</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>44789</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
         <v>44792</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41239,7 +41239,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>44798</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44803</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44803</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44804</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44806</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>44806</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44810</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44818</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44818</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44819</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44820</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44820</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44823</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44827</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>44830</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>44831</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44834</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>44837</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42754,7 +42754,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44840</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44840</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44841</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>44844</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>44845</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44845</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44847</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44848</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44849</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44851</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>44853</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44859</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44862</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>44865</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44866</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>44867</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>44869</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>44872</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>44873</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>44874</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44876</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45035,7 +45035,7 @@
         <v>44879</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>44880</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45154,7 +45154,7 @@
         <v>44881</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>44882</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>44883</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45397,7 +45397,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45454,7 +45454,7 @@
         <v>44886</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>44887</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44893</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>44894</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>44902</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>44906</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>44907</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>44908</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>44909</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44911</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>44916</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>44929</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>44930</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>44939</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>44945</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>44950</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>44951</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>44954</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>44955</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47239,7 +47239,7 @@
         <v>44956</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>44960</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>44964</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>44967</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>44972</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>44974</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>44977</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>44978</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44986</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44988</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>44993</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48052,7 +48052,7 @@
         <v>44995</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44996</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45000</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45001</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45002</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45008</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>45009</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48870,7 +48870,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48932,7 +48932,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45012</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45013</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45021</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>45027</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>45028</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49522,7 +49522,7 @@
         <v>45029</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49584,7 +49584,7 @@
         <v>45030</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49641,7 +49641,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49698,7 +49698,7 @@
         <v>45033</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49755,7 +49755,7 @@
         <v>45034</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49812,7 +49812,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49874,7 +49874,7 @@
         <v>45036</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49931,7 +49931,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49993,7 +49993,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50050,7 +50050,7 @@
         <v>45037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>45040</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50231,7 +50231,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50293,7 +50293,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50350,7 +50350,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45041</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45042</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45043</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45049</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45050</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45051</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51168,7 +51168,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51230,7 +51230,7 @@
         <v>45057</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51292,7 +51292,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51354,7 +51354,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51411,7 +51411,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51473,7 +51473,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51535,7 +51535,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51659,7 +51659,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45058</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52083,7 +52083,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45061</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52264,7 +52264,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52378,7 +52378,7 @@
         <v>45065</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45068</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
         <v>45069</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45071</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45072</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52931,7 +52931,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52993,7 +52993,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45075</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45077</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53303,7 +53303,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53427,7 +53427,7 @@
         <v>45078</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53489,7 +53489,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53551,7 +53551,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53727,7 +53727,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53784,7 +53784,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54027,7 +54027,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54089,7 +54089,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54265,7 +54265,7 @@
         <v>45087</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54327,7 +54327,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45088</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54446,7 +54446,7 @@
         <v>45089</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>45091</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54818,7 +54818,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54875,7 +54875,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54932,7 +54932,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54989,7 +54989,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55051,7 +55051,7 @@
         <v>45104</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>45105</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55408,7 +55408,7 @@
         <v>45107</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55465,7 +55465,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55522,7 +55522,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55636,7 +55636,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55760,7 +55760,7 @@
         <v>45120</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55822,7 +55822,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55884,7 +55884,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55946,7 +55946,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56008,7 +56008,7 @@
         <v>45133</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56070,7 +56070,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56132,7 +56132,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56194,7 +56194,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56375,7 +56375,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56432,7 +56432,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56494,7 +56494,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56551,7 +56551,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56613,7 +56613,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56670,7 +56670,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56727,7 +56727,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56784,7 +56784,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56841,7 +56841,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56903,7 +56903,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56965,7 +56965,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57022,7 +57022,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57079,7 +57079,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57136,7 +57136,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44803</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43739</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44537</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43735</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44895</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45057</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43759</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43895</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44188</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44825</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44392</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44403</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43700</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43951</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44344</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44393</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44477</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44839</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44876</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43623</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43729</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43775</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43797</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44060</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44390</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44500</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44743</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>44762</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44830</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44900</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44907</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44945</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44977</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45013</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45049</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45051</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>45072</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45093</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45103</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45105</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43621</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43728</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43730</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44151</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44564</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44655</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44659</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44726</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44742</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44862</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44872</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44918</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44930</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44996</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45028</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45049</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45058</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45072</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45084</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45084</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45092</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43325</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43363</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43392</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43392</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43392</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43397</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43403</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43403</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43413</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43413</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43415</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43416</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43417</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43420</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43432</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43433</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43437</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43438</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>43445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43447</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43462</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>43483</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>43497</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43503</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43508</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43509</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43535</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43542</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43543</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43565</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43567</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>43567</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43570</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43578</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43580</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43580</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43580</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43581</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43589</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>43593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43602</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>43609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43612</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43633</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>43635</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43635</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43636</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>43647</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43649</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43659</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43664</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>43675</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43686</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43697</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43697</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>43698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>43699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43705</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>43714</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43714</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>43720</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43720</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>43731</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>43732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43735</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43735</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43735</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43739</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>43739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>43739</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>43746</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>43748</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>43749</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43762</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43767</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43768</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43770</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43776</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43780</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43796</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>43801</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43811</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43826</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43833</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43854</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>43866</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>43868</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>43872</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>43872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>43872</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43881</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>43906</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>43913</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43913</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>43915</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>43920</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>43921</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>43921</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>43921</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43924</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>43927</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>43937</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>43943</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>43945</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>43948</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43955</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>43955</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>43959</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>43962</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>43976</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>43976</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43978</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>43980</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43984</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43984</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>43985</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>43985</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>43991</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43991</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>43997</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>43997</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44004</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44004</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44007</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44007</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>44013</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>44015</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>44018</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44026</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>44034</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44036</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44036</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44041</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44041</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44042</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44046</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44046</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44046</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44050</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44053</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44057</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44060</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44061</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44062</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44062</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44062</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44063</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44067</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>44067</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>44068</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>44071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44075</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44075</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44075</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44078</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44078</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44083</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44084</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44088</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44090</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44098</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>44098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44098</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44103</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44120</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44124</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44124</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44126</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44130</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44131</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44131</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44137</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44137</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44137</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>44138</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>44138</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44138</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>44148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44154</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44154</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44154</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>44158</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44158</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44161</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44162</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44168</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44168</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44169</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44169</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44176</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44179</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44179</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44181</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44181</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44181</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44186</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44187</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44207</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44209</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44215</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44215</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44215</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>44216</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44224</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44229</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44230</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44231</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44232</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44254</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44258</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44260</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44273</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44277</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44280</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>44287</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44291</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44293</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44293</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44294</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44295</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44301</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44308</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>44316</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>44319</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>44320</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>44321</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>44323</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>44328</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>44336</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44341</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>44344</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>44348</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44348</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44350</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44350</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44356</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44356</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44356</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>44357</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44357</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44361</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44361</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44362</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44362</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44363</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44368</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44371</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44376</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44377</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>44379</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44382</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44392</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44397</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>44397</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44398</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33157,7 +33157,7 @@
         <v>44403</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>44405</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44405</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44407</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>44411</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44417</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44420</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44424</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44426</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44433</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44434</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44434</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44445</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44445</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44446</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44447</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>44448</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>44455</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         <v>44468</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>44469</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>44470</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>44473</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>44477</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>44480</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44480</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44503</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44503</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44504</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44508</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44508</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44517</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44526</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>44526</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35899,7 +35899,7 @@
         <v>44537</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44537</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44540</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44540</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44546</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>44571</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>44572</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>44574</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44574</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>44580</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>44582</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44586</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>44587</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>44589</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44590</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>44594</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44601</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44601</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44623</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>44627</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>44628</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>44637</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44638</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>44638</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>44657</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>44657</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44663</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44679</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44679</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>44685</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>44690</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38752,7 +38752,7 @@
         <v>44690</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44691</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44697</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>44700</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44700</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44706</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>44706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>44717</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39461,7 +39461,7 @@
         <v>44720</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
         <v>44720</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44721</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>44726</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>44727</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>44733</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>44734</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>44734</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44738</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>44739</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>44746</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>44755</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>44761</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>44761</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>44764</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>44774</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44774</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>44776</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44777</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44779</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44788</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>44788</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>44789</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
         <v>44792</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41239,7 +41239,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>44798</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44803</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44803</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44804</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44806</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>44806</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44810</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44818</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44818</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44819</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44820</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44820</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44823</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44827</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>44830</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>44831</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44834</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>44837</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42754,7 +42754,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44840</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44840</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44841</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>44844</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>44845</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44845</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44847</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44848</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44849</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44851</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>44853</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44859</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44862</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>44865</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44866</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>44867</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>44869</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>44872</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>44873</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>44874</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44876</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45035,7 +45035,7 @@
         <v>44879</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>44880</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45154,7 +45154,7 @@
         <v>44881</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>44882</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>44883</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45397,7 +45397,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45454,7 +45454,7 @@
         <v>44886</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>44887</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44893</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>44894</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>44902</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>44906</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>44907</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>44908</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>44909</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44911</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>44916</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>44929</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>44930</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>44939</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>44945</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>44950</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>44951</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>44954</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>44955</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47239,7 +47239,7 @@
         <v>44956</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>44960</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>44964</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>44967</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>44972</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>44974</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>44977</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>44978</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44986</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44988</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>44993</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48052,7 +48052,7 @@
         <v>44995</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44996</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45000</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45001</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45002</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45008</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>45009</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48870,7 +48870,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48932,7 +48932,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45012</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45013</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45021</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>45027</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>45028</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49522,7 +49522,7 @@
         <v>45029</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49584,7 +49584,7 @@
         <v>45030</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49641,7 +49641,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49698,7 +49698,7 @@
         <v>45033</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49755,7 +49755,7 @@
         <v>45034</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49812,7 +49812,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49874,7 +49874,7 @@
         <v>45036</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49931,7 +49931,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49993,7 +49993,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50050,7 +50050,7 @@
         <v>45037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>45040</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50231,7 +50231,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50293,7 +50293,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50350,7 +50350,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45041</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45042</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45043</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45049</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45050</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45051</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51168,7 +51168,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51230,7 +51230,7 @@
         <v>45057</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51292,7 +51292,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51354,7 +51354,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51411,7 +51411,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51473,7 +51473,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51535,7 +51535,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51659,7 +51659,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45058</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52083,7 +52083,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45061</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52264,7 +52264,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52378,7 +52378,7 @@
         <v>45065</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45068</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
         <v>45069</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45071</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45072</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52931,7 +52931,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52993,7 +52993,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45075</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45077</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53303,7 +53303,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53427,7 +53427,7 @@
         <v>45078</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53489,7 +53489,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53551,7 +53551,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53727,7 +53727,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53784,7 +53784,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54027,7 +54027,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54089,7 +54089,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54265,7 +54265,7 @@
         <v>45087</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54327,7 +54327,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45088</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54446,7 +54446,7 @@
         <v>45089</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>45091</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54818,7 +54818,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54875,7 +54875,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54932,7 +54932,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54989,7 +54989,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55051,7 +55051,7 @@
         <v>45104</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>45105</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55408,7 +55408,7 @@
         <v>45107</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55465,7 +55465,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55522,7 +55522,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55636,7 +55636,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55760,7 +55760,7 @@
         <v>45120</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55822,7 +55822,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55884,7 +55884,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55946,7 +55946,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56008,7 +56008,7 @@
         <v>45133</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56070,7 +56070,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56132,7 +56132,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56194,7 +56194,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56375,7 +56375,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56432,7 +56432,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56494,7 +56494,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56551,7 +56551,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56613,7 +56613,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56670,7 +56670,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56727,7 +56727,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56784,7 +56784,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56841,7 +56841,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56903,7 +56903,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56965,7 +56965,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57022,7 +57022,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57079,7 +57079,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57136,7 +57136,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44803</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43739</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>45105</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44537</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43612</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43735</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44895</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>44951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45057</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44167</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44861</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43759</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43895</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>44188</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44825</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43977</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>44348</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44392</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44403</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44693</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45169</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43700</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43951</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44068</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>44344</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44393</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44477</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44628</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44839</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44876</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>43549</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43623</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43729</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43775</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43797</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44060</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44343</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44390</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44412</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44490</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44500</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44743</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>44762</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44774</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44782</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44830</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44833</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44865</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>44865</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>44883</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44900</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44907</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44945</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44977</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45013</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45049</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45051</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>45072</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45093</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45103</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45105</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43621</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43728</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43730</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>43735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44151</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44564</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44655</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44659</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44726</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44742</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>44844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44862</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44872</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44918</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44930</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44996</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>45000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45028</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>45049</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45058</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45072</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45084</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45084</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45092</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43325</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43341</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43363</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43392</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43392</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43392</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>43397</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>43403</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43403</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43413</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43413</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43415</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43416</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43417</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43418</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43420</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43425</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43432</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43433</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43437</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43438</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>43445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>43447</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43462</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>43483</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>43497</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43503</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43508</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43509</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43523</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43529</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43535</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43542</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43542</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43543</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43565</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43567</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>43567</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>43570</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>43571</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>43571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>43572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43573</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43578</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43580</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43580</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43580</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43581</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>43585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>43589</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>43593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>43594</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43602</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>43609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>43612</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>43614</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>43629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43633</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>43633</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>43635</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43635</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>43636</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>43636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>43647</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43649</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>43651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43659</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>43664</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43664</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>43675</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43676</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>43677</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43686</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43697</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43697</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>43698</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>43699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43705</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>43714</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43714</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>43720</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>43720</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>43731</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>43732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43735</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>43735</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43735</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>43739</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>43739</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>43739</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>43746</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>43748</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>43749</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>43759</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>43762</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>43767</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>43768</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>43770</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>43773</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>43776</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>43777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>43780</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>43796</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>43801</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>43811</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>43815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>43826</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>43833</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43854</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>43866</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>43868</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>43872</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>43872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>43872</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43881</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>43906</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>43913</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>43913</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>43915</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>43920</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>43921</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>43921</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>43921</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>43923</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43924</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>43927</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>43937</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>43943</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>43945</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>43948</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>43955</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>43955</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>43959</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>43962</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>43976</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>43976</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>43978</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>43980</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43984</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43984</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>43985</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>43985</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>43991</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>43991</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>43997</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>43997</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44004</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44004</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>44005</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44007</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44007</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44011</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>44012</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>44013</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>44015</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>44018</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44021</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44026</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>44034</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
         <v>44036</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>44036</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44041</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44041</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44042</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44046</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44046</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44046</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44050</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>44053</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>44054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44057</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44060</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44061</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44062</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44062</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>44062</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44063</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44063</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44067</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>44067</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>44068</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>44071</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44071</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44075</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44075</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44075</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>44078</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>44078</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44078</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44083</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44084</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44088</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44090</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44098</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>44098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>44098</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44103</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>44111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>44111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26641,7 +26641,7 @@
         <v>44120</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44124</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44124</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44126</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44130</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44131</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44131</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>44137</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44137</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44137</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>44138</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>44138</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44138</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>44140</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>44148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>44154</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>44154</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44154</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>44158</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44158</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44161</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44162</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>44168</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>44168</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44169</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>44169</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44176</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44179</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44179</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44181</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44181</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44181</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44186</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44187</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44207</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44209</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44215</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44215</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44215</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>44216</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44224</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44229</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44230</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44231</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44232</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44254</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>44258</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>44260</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44273</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44277</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44280</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>44287</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44291</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44293</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44293</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44294</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44295</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44301</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44308</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>44316</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31017,7 +31017,7 @@
         <v>44319</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>44320</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>44321</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>44323</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         <v>44328</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>44334</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>44336</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44341</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>44344</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         <v>44348</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>44348</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44350</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44350</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44356</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44356</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44356</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>44357</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32071,7 +32071,7 @@
         <v>44357</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44361</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32195,7 +32195,7 @@
         <v>44361</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32252,7 +32252,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32314,7 +32314,7 @@
         <v>44362</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44362</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44363</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>44368</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44371</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44376</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44377</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>44379</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44382</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44392</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44397</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>44397</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44398</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33157,7 +33157,7 @@
         <v>44403</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>44405</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44405</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44407</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>44411</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44417</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44420</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>44424</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>44426</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33767,7 +33767,7 @@
         <v>44433</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44434</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44434</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44445</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44445</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>44446</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44447</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         <v>44448</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>44455</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         <v>44468</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>44469</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>44470</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>44473</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>44477</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>44480</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44480</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44503</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>44503</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44504</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44508</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44508</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44517</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44518</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44526</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>44526</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35899,7 +35899,7 @@
         <v>44537</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>44537</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44540</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44540</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44546</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>44571</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>44572</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>44574</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44574</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>44580</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>44582</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>44586</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>44587</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>44589</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>44590</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37230,7 +37230,7 @@
         <v>44594</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37312,7 +37312,7 @@
         <v>44601</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37369,7 +37369,7 @@
         <v>44601</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44623</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>44627</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>44628</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>44637</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>44638</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>44638</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>44657</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>44657</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44663</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44679</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44679</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>44683</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>44685</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>44690</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38752,7 +38752,7 @@
         <v>44690</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         <v>44691</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44697</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>44700</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39166,7 +39166,7 @@
         <v>44700</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>44706</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>44706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>44717</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39461,7 +39461,7 @@
         <v>44720</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
         <v>44720</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44721</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>44726</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>44727</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>44733</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39957,7 +39957,7 @@
         <v>44734</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>44734</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>44738</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>44739</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>44746</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>44755</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>44761</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>44761</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>44764</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>44774</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>44774</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>44776</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44777</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44779</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44788</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>44788</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>44789</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44790</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
         <v>44792</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41239,7 +41239,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>44798</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44803</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44803</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44804</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44805</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44806</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>44806</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44810</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44818</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44818</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44819</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44820</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44820</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44823</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>44827</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>44830</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42449,7 +42449,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>44831</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>44833</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>44834</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42692,7 +42692,7 @@
         <v>44837</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42754,7 +42754,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>44840</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>44840</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42935,7 +42935,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43059,7 +43059,7 @@
         <v>44841</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>44844</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>44845</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>44845</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44847</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>44848</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>44849</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44851</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>44852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>44853</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44859</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44068,7 +44068,7 @@
         <v>44862</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>44865</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44373,7 +44373,7 @@
         <v>44866</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>44867</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>44869</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44559,7 +44559,7 @@
         <v>44872</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>44873</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>44874</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44876</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45035,7 +45035,7 @@
         <v>44879</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>44880</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45154,7 +45154,7 @@
         <v>44881</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>44882</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>44883</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45397,7 +45397,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45454,7 +45454,7 @@
         <v>44886</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>44887</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44893</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>44894</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>44902</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>44906</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>44907</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>44908</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46282,7 +46282,7 @@
         <v>44909</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>44911</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>44916</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>44929</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>44930</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46758,7 +46758,7 @@
         <v>44939</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46815,7 +46815,7 @@
         <v>44945</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>44950</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>44951</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>44954</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>44955</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47239,7 +47239,7 @@
         <v>44956</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>44960</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>44964</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>44967</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>44972</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>44974</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>44977</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>44978</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44986</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44988</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>44993</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48052,7 +48052,7 @@
         <v>44995</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48109,7 +48109,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48166,7 +48166,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48223,7 +48223,7 @@
         <v>44996</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45000</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45001</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48508,7 +48508,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48565,7 +48565,7 @@
         <v>45002</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48684,7 +48684,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45008</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>45009</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48870,7 +48870,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48932,7 +48932,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45012</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45013</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45021</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>45027</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>45028</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49522,7 +49522,7 @@
         <v>45029</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49584,7 +49584,7 @@
         <v>45030</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49641,7 +49641,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49698,7 +49698,7 @@
         <v>45033</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49755,7 +49755,7 @@
         <v>45034</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49812,7 +49812,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49874,7 +49874,7 @@
         <v>45036</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49931,7 +49931,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49993,7 +49993,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50050,7 +50050,7 @@
         <v>45037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50107,7 +50107,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         <v>45040</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50231,7 +50231,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50293,7 +50293,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50350,7 +50350,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50412,7 +50412,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50469,7 +50469,7 @@
         <v>45041</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50526,7 +50526,7 @@
         <v>45042</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50583,7 +50583,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50645,7 +50645,7 @@
         <v>45043</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50702,7 +50702,7 @@
         <v>45049</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50759,7 +50759,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50873,7 +50873,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50930,7 +50930,7 @@
         <v>45050</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50987,7 +50987,7 @@
         <v>45051</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51168,7 +51168,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51230,7 +51230,7 @@
         <v>45057</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51292,7 +51292,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51354,7 +51354,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51411,7 +51411,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51473,7 +51473,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51535,7 +51535,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51659,7 +51659,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45058</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51783,7 +51783,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51902,7 +51902,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52021,7 +52021,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52083,7 +52083,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52145,7 +52145,7 @@
         <v>45061</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52202,7 +52202,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52264,7 +52264,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52378,7 +52378,7 @@
         <v>45065</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45068</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
         <v>45069</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52683,7 +52683,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52745,7 +52745,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52807,7 +52807,7 @@
         <v>45071</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52869,7 +52869,7 @@
         <v>45072</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52931,7 +52931,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52993,7 +52993,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53055,7 +53055,7 @@
         <v>45075</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45077</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53303,7 +53303,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53427,7 +53427,7 @@
         <v>45078</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53489,7 +53489,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53551,7 +53551,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53727,7 +53727,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53784,7 +53784,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53965,7 +53965,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54027,7 +54027,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54089,7 +54089,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54265,7 +54265,7 @@
         <v>45087</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54327,7 +54327,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45088</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54446,7 +54446,7 @@
         <v>45089</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54632,7 +54632,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>45091</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54818,7 +54818,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54875,7 +54875,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54932,7 +54932,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54989,7 +54989,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55051,7 +55051,7 @@
         <v>45104</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55108,7 +55108,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>45105</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55408,7 +55408,7 @@
         <v>45107</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55465,7 +55465,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55522,7 +55522,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55636,7 +55636,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55698,7 +55698,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55760,7 +55760,7 @@
         <v>45120</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55822,7 +55822,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55884,7 +55884,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55946,7 +55946,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56008,7 +56008,7 @@
         <v>45133</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56070,7 +56070,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56132,7 +56132,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56194,7 +56194,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56375,7 +56375,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56432,7 +56432,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56494,7 +56494,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56551,7 +56551,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56613,7 +56613,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56670,7 +56670,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56727,7 +56727,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56784,7 +56784,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56841,7 +56841,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56903,7 +56903,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56965,7 +56965,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57022,7 +57022,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57079,7 +57079,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57136,7 +57136,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1618,8 +1618,8 @@
 Tallticka
 Tretåig hackspett
 Ullticka
-Vaddporing
 Äggvaxskivling
+Fjällig taggsvamp s.str.
 Skarp dropptaggsvamp
 Svavelriska</t>
         </is>
@@ -1659,7 +1659,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>43739</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>44606</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>45105</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43612</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>43735</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44068</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44895</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>44951</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44167</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44861</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43759</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>43895</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44188</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>43700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>43977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>43977</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>44062</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44403</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44693</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44790</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>45169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43700</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43951</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>44068</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>44344</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44393</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44477</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44588</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44628</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44839</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44876</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>43549</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43623</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43729</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43775</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43797</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44060</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44343</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>44356</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>44412</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44490</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>44500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>44587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44743</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44762</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44774</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44782</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44830</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>44833</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44859</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>44865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>44865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>44883</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44900</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>44907</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44945</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45013</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>45049</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45051</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>45093</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>45103</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>45105</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>43621</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43728</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43730</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43735</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44042</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44151</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44309</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>44368</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44659</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>44720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44726</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44742</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44796</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44844</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44876</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44918</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>44930</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44996</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>45000</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>45028</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>45049</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45051</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>45057</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>45058</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45069</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>45072</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>45084</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>45092</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>45112</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>43325</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>43341</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>43363</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>43392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>43392</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43392</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43392</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43397</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>43398</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>43403</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>43403</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43413</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43413</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43415</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>43416</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>43417</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>43418</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43420</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43425</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43432</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43433</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43437</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43438</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>43445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>43447</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>43462</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>43473</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>43483</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>43497</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>43501</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43503</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>43508</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>43509</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>43529</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>43535</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>43542</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>43542</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43543</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>43545</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>43556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43567</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>43570</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>43571</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43571</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43572</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>43572</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>43573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43578</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43578</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43580</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43580</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43580</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>43581</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43589</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43594</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>43594</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>43598</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>43608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43609</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43612</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>43614</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         <v>43628</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>43629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43633</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43633</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43635</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43636</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43640</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>43649</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>43650</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>43654</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>43659</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43664</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>43664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>43668</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>43675</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>43676</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>43677</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>43686</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>43689</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>43691</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43697</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43697</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>43698</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43699</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>43705</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43705</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>43713</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43714</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43714</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43720</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>43720</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>43731</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>43732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>43735</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>43735</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>43735</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>43739</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>43739</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>43739</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>43746</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>43748</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>43759</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>43762</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>43767</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>43768</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>43770</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>43773</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>43776</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>43777</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>43780</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>43782</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>43782</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>43796</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>43797</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43801</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43808</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43826</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43833</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>43840</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>43852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>43854</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43868</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>43872</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>43872</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>43872</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>43881</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43906</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43913</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>43913</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>43915</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>43920</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>43921</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>43921</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>43924</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>43927</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>43937</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>43943</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>43945</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>43948</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>43955</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>43955</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>43959</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>43962</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>43976</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>43976</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>43978</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>43980</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>43984</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>43984</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>43985</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>43985</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>43991</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>43997</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
         <v>43997</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44004</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22964,7 +22964,7 @@
         <v>44005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44007</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44007</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44007</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44011</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44012</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44013</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44015</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44018</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44021</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44026</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44034</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44034</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44036</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44036</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>44041</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44042</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>44046</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>44046</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44046</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44054</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44057</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44057</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>44060</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>44061</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44062</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>44062</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44062</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>44063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>44063</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44063</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44067</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44067</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>44071</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>44071</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>44075</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44075</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44075</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44078</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44078</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44083</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44088</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44090</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44098</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>44098</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44098</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44099</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44103</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44104</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44120</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>44124</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44124</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44126</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>44130</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>44131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44131</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44131</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44137</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44137</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>44137</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44138</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44138</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>44138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>44140</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>44148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>44154</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>44154</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>44154</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28647,7 +28647,7 @@
         <v>44158</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44158</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44161</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28833,7 +28833,7 @@
         <v>44162</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28890,7 +28890,7 @@
         <v>44168</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>44168</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>44169</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>44176</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>44179</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>44181</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>44181</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>44181</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44186</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44187</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44207</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>44209</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>44215</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         <v>44215</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44215</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44216</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44224</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44229</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
         <v>44230</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44231</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44232</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44254</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>44258</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44260</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>44273</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44277</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>44280</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>44287</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         <v>44291</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30856,7 +30856,7 @@
         <v>44293</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>44294</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30970,7 +30970,7 @@
         <v>44295</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44301</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44308</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44316</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>44319</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>44320</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44321</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>44323</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>44328</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>44336</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         <v>44341</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>44344</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>44348</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44348</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>44350</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31932,7 +31932,7 @@
         <v>44350</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>44356</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44356</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32118,7 +32118,7 @@
         <v>44357</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44357</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44361</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44361</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>44362</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44362</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32624,7 +32624,7 @@
         <v>44363</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>44368</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44371</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44376</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44377</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32919,7 +32919,7 @@
         <v>44379</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44382</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44392</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33100,7 +33100,7 @@
         <v>44397</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>44397</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44398</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>44403</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>44405</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33410,7 +33410,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33472,7 +33472,7 @@
         <v>44405</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>44407</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33596,7 +33596,7 @@
         <v>44411</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33653,7 +33653,7 @@
         <v>44417</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         <v>44420</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>44424</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>44426</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>44433</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44434</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>44434</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34082,7 +34082,7 @@
         <v>44445</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34144,7 +34144,7 @@
         <v>44445</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44446</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34263,7 +34263,7 @@
         <v>44447</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34325,7 +34325,7 @@
         <v>44448</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         <v>44455</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44463</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44468</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44469</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44470</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44473</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44477</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>44480</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44487</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44503</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>44503</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44504</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44508</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35557,7 +35557,7 @@
         <v>44508</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44517</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35738,7 +35738,7 @@
         <v>44518</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35795,7 +35795,7 @@
         <v>44526</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44526</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44529</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44537</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36085,7 +36085,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36142,7 +36142,7 @@
         <v>44537</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>44540</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44540</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36313,7 +36313,7 @@
         <v>44546</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36427,7 +36427,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36484,7 +36484,7 @@
         <v>44546</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36655,7 +36655,7 @@
         <v>44571</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36712,7 +36712,7 @@
         <v>44572</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36769,7 +36769,7 @@
         <v>44574</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36831,7 +36831,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>44582</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>44586</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>44589</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>44590</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>44594</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37441,7 +37441,7 @@
         <v>44601</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>44601</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37617,7 +37617,7 @@
         <v>44609</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37674,7 +37674,7 @@
         <v>44610</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37736,7 +37736,7 @@
         <v>44623</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37793,7 +37793,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37850,7 +37850,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37907,7 +37907,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>44623</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>44627</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>44628</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>44637</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44638</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>44638</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>44657</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>44657</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         <v>44663</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>44679</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38653,7 +38653,7 @@
         <v>44679</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38710,7 +38710,7 @@
         <v>44683</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38767,7 +38767,7 @@
         <v>44685</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38824,7 +38824,7 @@
         <v>44690</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38938,7 +38938,7 @@
         <v>44690</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38995,7 +38995,7 @@
         <v>44691</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39052,7 +39052,7 @@
         <v>44693</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
         <v>44697</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44699</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44700</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39352,7 +39352,7 @@
         <v>44700</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39409,7 +39409,7 @@
         <v>44706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39471,7 +39471,7 @@
         <v>44706</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39528,7 +39528,7 @@
         <v>44717</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39590,7 +39590,7 @@
         <v>44720</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39652,7 +39652,7 @@
         <v>44720</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39714,7 +39714,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39776,7 +39776,7 @@
         <v>44726</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39838,7 +39838,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>44727</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>44729</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>44733</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>44734</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>44734</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40210,7 +40210,7 @@
         <v>44738</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40272,7 +40272,7 @@
         <v>44739</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>44746</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>44755</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40458,7 +40458,7 @@
         <v>44761</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>44761</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40582,7 +40582,7 @@
         <v>44764</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44774</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40830,7 +40830,7 @@
         <v>44777</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40892,7 +40892,7 @@
         <v>44779</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40949,7 +40949,7 @@
         <v>44788</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41011,7 +41011,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41073,7 +41073,7 @@
         <v>44788</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>44789</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>44790</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41254,7 +41254,7 @@
         <v>44792</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41311,7 +41311,7 @@
         <v>44797</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41368,7 +41368,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41430,7 +41430,7 @@
         <v>44798</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44803</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41549,7 +41549,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41606,7 +41606,7 @@
         <v>44803</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41668,7 +41668,7 @@
         <v>44804</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41730,7 +41730,7 @@
         <v>44805</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41787,7 +41787,7 @@
         <v>44806</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41844,7 +41844,7 @@
         <v>44806</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         <v>44810</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41963,7 +41963,7 @@
         <v>44818</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42025,7 +42025,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42149,7 +42149,7 @@
         <v>44818</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>44819</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>44820</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42335,7 +42335,7 @@
         <v>44820</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42392,7 +42392,7 @@
         <v>44823</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42454,7 +42454,7 @@
         <v>44827</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>44830</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>44830</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42640,7 +42640,7 @@
         <v>44831</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42702,7 +42702,7 @@
         <v>44833</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42759,7 +42759,7 @@
         <v>44834</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42821,7 +42821,7 @@
         <v>44837</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42883,7 +42883,7 @@
         <v>44837</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42945,7 +42945,7 @@
         <v>44840</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43002,7 +43002,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43126,7 +43126,7 @@
         <v>44840</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43188,7 +43188,7 @@
         <v>44841</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         <v>44844</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>44845</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>44845</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>44848</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>44849</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43778,7 +43778,7 @@
         <v>44851</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43835,7 +43835,7 @@
         <v>44852</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43897,7 +43897,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43959,7 +43959,7 @@
         <v>44853</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44859</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44862</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>44865</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44378,7 +44378,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>44866</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44502,7 +44502,7 @@
         <v>44867</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44564,7 +44564,7 @@
         <v>44869</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44872</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44873</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44874</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44978,7 +44978,7 @@
         <v>44876</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45040,7 +45040,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45102,7 +45102,7 @@
         <v>44879</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45159,7 +45159,7 @@
         <v>44880</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45221,7 +45221,7 @@
         <v>44881</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45283,7 +45283,7 @@
         <v>44882</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45345,7 +45345,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45402,7 +45402,7 @@
         <v>44883</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45464,7 +45464,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45521,7 +45521,7 @@
         <v>44886</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45578,7 +45578,7 @@
         <v>44887</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45635,7 +45635,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45697,7 +45697,7 @@
         <v>44893</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45754,7 +45754,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44894</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45997,7 +45997,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44902</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46111,7 +46111,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46168,7 +46168,7 @@
         <v>44906</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>44907</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>44908</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46349,7 +46349,7 @@
         <v>44909</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46411,7 +46411,7 @@
         <v>44911</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46473,7 +46473,7 @@
         <v>44916</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46535,7 +46535,7 @@
         <v>44929</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46592,7 +46592,7 @@
         <v>44930</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46649,7 +46649,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46768,7 +46768,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46825,7 +46825,7 @@
         <v>44939</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46882,7 +46882,7 @@
         <v>44945</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46944,7 +46944,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>44950</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47068,7 +47068,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47125,7 +47125,7 @@
         <v>44951</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47187,7 +47187,7 @@
         <v>44954</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47249,7 +47249,7 @@
         <v>44955</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47306,7 +47306,7 @@
         <v>44956</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47363,7 +47363,7 @@
         <v>44960</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47420,7 +47420,7 @@
         <v>44964</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47477,7 +47477,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>44967</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>44972</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47653,7 +47653,7 @@
         <v>44974</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47710,7 +47710,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47767,7 +47767,7 @@
         <v>44977</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47824,7 +47824,7 @@
         <v>44978</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>44986</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>44988</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>44993</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48119,7 +48119,7 @@
         <v>44995</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48176,7 +48176,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48233,7 +48233,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48290,7 +48290,7 @@
         <v>44996</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48347,7 +48347,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48404,7 +48404,7 @@
         <v>45000</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48461,7 +48461,7 @@
         <v>45001</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48518,7 +48518,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48575,7 +48575,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48632,7 +48632,7 @@
         <v>45002</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48689,7 +48689,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48751,7 +48751,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48813,7 +48813,7 @@
         <v>45008</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48875,7 +48875,7 @@
         <v>45009</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49061,7 +49061,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         <v>45012</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>45013</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49356,7 +49356,7 @@
         <v>45021</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49418,7 +49418,7 @@
         <v>45027</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49475,7 +49475,7 @@
         <v>45028</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49532,7 +49532,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49589,7 +49589,7 @@
         <v>45029</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49651,7 +49651,7 @@
         <v>45030</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49708,7 +49708,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49765,7 +49765,7 @@
         <v>45033</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49822,7 +49822,7 @@
         <v>45034</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49879,7 +49879,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         <v>45036</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49998,7 +49998,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50060,7 +50060,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50117,7 +50117,7 @@
         <v>45037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50174,7 +50174,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50236,7 +50236,7 @@
         <v>45040</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50298,7 +50298,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50360,7 +50360,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50417,7 +50417,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50479,7 +50479,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50536,7 +50536,7 @@
         <v>45041</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50593,7 +50593,7 @@
         <v>45042</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50650,7 +50650,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50712,7 +50712,7 @@
         <v>45043</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50769,7 +50769,7 @@
         <v>45049</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50826,7 +50826,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50883,7 +50883,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50940,7 +50940,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50997,7 +50997,7 @@
         <v>45050</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51054,7 +51054,7 @@
         <v>45051</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51116,7 +51116,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51173,7 +51173,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51235,7 +51235,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51297,7 +51297,7 @@
         <v>45057</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51359,7 +51359,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51421,7 +51421,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51478,7 +51478,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51540,7 +51540,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51602,7 +51602,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51664,7 +51664,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51726,7 +51726,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51788,7 +51788,7 @@
         <v>45058</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51850,7 +51850,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51907,7 +51907,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51969,7 +51969,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52088,7 +52088,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52212,7 +52212,7 @@
         <v>45061</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52269,7 +52269,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45062</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45065</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52569,7 +52569,7 @@
         <v>45068</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52631,7 +52631,7 @@
         <v>45069</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52693,7 +52693,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52750,7 +52750,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52812,7 +52812,7 @@
         <v>45070</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52874,7 +52874,7 @@
         <v>45071</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52936,7 +52936,7 @@
         <v>45072</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52998,7 +52998,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53060,7 +53060,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>45075</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53184,7 +53184,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53246,7 +53246,7 @@
         <v>45077</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53370,7 +53370,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53432,7 +53432,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53494,7 +53494,7 @@
         <v>45078</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53556,7 +53556,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53618,7 +53618,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53680,7 +53680,7 @@
         <v>45079</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53737,7 +53737,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53794,7 +53794,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53851,7 +53851,7 @@
         <v>45082</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53913,7 +53913,7 @@
         <v>45085</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53970,7 +53970,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54032,7 +54032,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54094,7 +54094,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54156,7 +54156,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54213,7 +54213,7 @@
         <v>45086</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54275,7 +54275,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54332,7 +54332,7 @@
         <v>45087</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54394,7 +54394,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54456,7 +54456,7 @@
         <v>45088</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54513,7 +54513,7 @@
         <v>45089</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54575,7 +54575,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54637,7 +54637,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54699,7 +54699,7 @@
         <v>45090</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54761,7 +54761,7 @@
         <v>45091</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54823,7 +54823,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54885,7 +54885,7 @@
         <v>45096</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54942,7 +54942,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54999,7 +54999,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55056,7 +55056,7 @@
         <v>45099</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55118,7 +55118,7 @@
         <v>45104</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55175,7 +55175,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55232,7 +55232,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55289,7 +55289,7 @@
         <v>45105</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55351,7 +55351,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55475,7 +55475,7 @@
         <v>45107</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55532,7 +55532,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55589,7 +55589,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55646,7 +55646,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55703,7 +55703,7 @@
         <v>45110</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55765,7 +55765,7 @@
         <v>45112</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55827,7 +55827,7 @@
         <v>45120</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55889,7 +55889,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55951,7 +55951,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56013,7 +56013,7 @@
         <v>45125</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56075,7 +56075,7 @@
         <v>45133</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56137,7 +56137,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56199,7 +56199,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56261,7 +56261,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56318,7 +56318,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56380,7 +56380,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56442,7 +56442,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56499,7 +56499,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56561,7 +56561,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56618,7 +56618,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56680,7 +56680,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56737,7 +56737,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56794,7 +56794,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56851,7 +56851,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56908,7 +56908,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56970,7 +56970,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57032,7 +57032,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57089,7 +57089,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57146,7 +57146,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57203,7 +57203,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>44803</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43739</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44606</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43612</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43735</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44068</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44895</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44951</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45057</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43759</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>43895</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43700</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43977</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43977</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44062</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44348</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>44693</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43700</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43951</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44344</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44393</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44477</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44588</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44628</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44839</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44876</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43623</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43729</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43775</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43797</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44060</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>44390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>44500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44587</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44743</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44762</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44774</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>44782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44830</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>44833</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>44865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44865</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44883</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44907</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>45013</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>45049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>45051</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45093</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>45103</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45105</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>43621</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>43730</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43735</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44042</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44151</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44309</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44368</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44530</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44655</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44659</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44720</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44796</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44844</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44862</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44872</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44876</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44918</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44930</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44996</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45028</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>45049</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45051</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45057</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>45058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45069</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45072</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45092</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45112</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43325</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43341</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43392</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43392</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43392</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43392</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43397</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43398</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43403</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43403</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43413</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43415</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43416</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43417</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43425</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>43433</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43437</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43438</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>43445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>43447</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43462</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43483</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43497</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>43501</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>43503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>43508</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>43509</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>43529</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>43535</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43542</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>43543</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>43545</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>43556</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>43567</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43567</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43571</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43571</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>43572</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43572</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43578</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43578</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43580</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43580</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>43580</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43581</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>43581</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43589</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>43594</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>43594</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43598</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43602</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>43609</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43612</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43614</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43633</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43636</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>43640</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>43647</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43651</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>43654</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43659</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43668</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>43675</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43676</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43677</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43686</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43689</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>43691</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43697</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43697</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43698</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43705</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>43705</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43713</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43714</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43714</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>43720</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>43731</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43735</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43735</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43739</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43739</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>43748</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>43759</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>43762</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43776</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43777</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>43780</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>43782</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43796</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43797</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43801</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43810</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43826</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43833</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43840</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43868</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>43872</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>43872</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>43872</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>43881</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43906</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43913</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>43913</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>43920</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>43921</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>43921</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43924</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>43927</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>43937</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>43943</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>43945</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43948</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>43955</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>43955</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>43959</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>43962</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>43976</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>43976</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>43980</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>43984</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>43984</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>43985</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43985</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>43991</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>43997</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>43997</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44004</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44007</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44007</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44007</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44011</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>44012</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44013</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44015</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44018</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44021</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44026</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44034</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44034</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44036</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44036</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44041</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>44046</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44046</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44046</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>44050</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44054</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24834,7 +24834,7 @@
         <v>44057</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44057</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>44057</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44060</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44061</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44062</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44062</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44062</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44063</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44063</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>44063</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>44067</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44067</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44071</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44071</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44075</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44075</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44075</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>44078</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>44083</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44084</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>44088</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>44090</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>44098</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44098</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>44098</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44099</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44103</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44104</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44124</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44124</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>44126</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44130</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>44131</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44131</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44131</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44137</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44137</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44137</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>44138</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44140</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44154</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44154</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44154</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44158</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44158</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>44161</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44162</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44168</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44168</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>44169</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>44176</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>44181</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>44181</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>44181</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
         <v>44186</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>44187</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>44207</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>44209</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>44215</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>44215</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30016,7 +30016,7 @@
         <v>44215</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>44216</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>44224</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>44229</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44230</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44231</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>44232</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>44254</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>44258</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         <v>44260</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44273</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44277</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>44280</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44287</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30869,7 +30869,7 @@
         <v>44291</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30926,7 +30926,7 @@
         <v>44293</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31040,7 +31040,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31097,7 +31097,7 @@
         <v>44295</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31154,7 +31154,7 @@
         <v>44301</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44316</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44319</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44320</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44321</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44323</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44328</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44334</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44336</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         <v>44341</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>44344</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>44348</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44348</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44350</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>44350</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44356</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44356</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44357</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>44357</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32389,7 +32389,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32451,7 +32451,7 @@
         <v>44361</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32508,7 +32508,7 @@
         <v>44361</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32570,7 +32570,7 @@
         <v>44362</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>44362</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44363</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44363</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44368</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44371</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44376</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44382</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44392</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44397</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44397</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>44398</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44403</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44405</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>44405</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>44411</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>44417</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44424</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44426</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44433</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44434</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44434</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>44445</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44445</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>44446</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>44447</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>44448</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34509,7 +34509,7 @@
         <v>44455</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>44463</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>44468</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34690,7 +34690,7 @@
         <v>44469</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34747,7 +34747,7 @@
         <v>44470</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>44477</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44480</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44487</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>44487</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44488</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44503</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
         <v>44504</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35627,7 +35627,7 @@
         <v>44508</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35684,7 +35684,7 @@
         <v>44508</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>44517</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>44518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44526</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44526</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36041,7 +36041,7 @@
         <v>44529</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>44529</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>44537</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36269,7 +36269,7 @@
         <v>44537</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>44540</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>44540</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44546</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>44546</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44550</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44571</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44572</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36896,7 +36896,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44574</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44580</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>44582</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>44586</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44589</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>44590</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>44594</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44601</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44601</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>44609</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>44610</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>44623</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>44623</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>44627</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>44628</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>44637</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>44638</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>44638</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>44657</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44657</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>44679</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>44679</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>44683</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44685</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>44690</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>44690</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>44691</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>44693</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         <v>44697</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>44699</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44700</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44700</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44706</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39598,7 +39598,7 @@
         <v>44706</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39655,7 +39655,7 @@
         <v>44717</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         <v>44720</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39779,7 +39779,7 @@
         <v>44720</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44721</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44726</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39965,7 +39965,7 @@
         <v>44727</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40027,7 +40027,7 @@
         <v>44727</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40089,7 +40089,7 @@
         <v>44729</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40151,7 +40151,7 @@
         <v>44733</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>44734</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>44734</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>44738</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44739</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44746</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40585,7 +40585,7 @@
         <v>44761</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40647,7 +40647,7 @@
         <v>44761</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44764</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40833,7 +40833,7 @@
         <v>44774</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44776</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44777</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44779</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41138,7 +41138,7 @@
         <v>44788</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44788</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44789</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44792</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>44803</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>44803</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41795,7 +41795,7 @@
         <v>44804</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44805</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>44806</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>44806</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42152,7 +42152,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44818</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44818</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44819</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44820</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44820</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42581,7 +42581,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         <v>44830</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44830</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>44831</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44833</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44834</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42948,7 +42948,7 @@
         <v>44837</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43010,7 +43010,7 @@
         <v>44837</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43072,7 +43072,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43129,7 +43129,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43191,7 +43191,7 @@
         <v>44840</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43253,7 +43253,7 @@
         <v>44840</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43315,7 +43315,7 @@
         <v>44841</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43372,7 +43372,7 @@
         <v>44844</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43496,7 +43496,7 @@
         <v>44845</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43553,7 +43553,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43615,7 +43615,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43672,7 +43672,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43729,7 +43729,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43786,7 +43786,7 @@
         <v>44848</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43843,7 +43843,7 @@
         <v>44849</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43905,7 +43905,7 @@
         <v>44851</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43962,7 +43962,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44852</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44086,7 +44086,7 @@
         <v>44853</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44148,7 +44148,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44205,7 +44205,7 @@
         <v>44859</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44262,7 +44262,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>44862</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44448,7 +44448,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44865</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44567,7 +44567,7 @@
         <v>44866</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44629,7 +44629,7 @@
         <v>44867</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44691,7 +44691,7 @@
         <v>44869</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44753,7 +44753,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44810,7 +44810,7 @@
         <v>44872</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44873</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44874</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45043,7 +45043,7 @@
         <v>44875</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45105,7 +45105,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45167,7 +45167,7 @@
         <v>44876</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45229,7 +45229,7 @@
         <v>44879</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45286,7 +45286,7 @@
         <v>44880</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
         <v>44881</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45472,7 +45472,7 @@
         <v>44882</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45529,7 +45529,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45591,7 +45591,7 @@
         <v>44883</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45648,7 +45648,7 @@
         <v>44886</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45705,7 +45705,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45762,7 +45762,7 @@
         <v>44887</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45824,7 +45824,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45881,7 +45881,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45943,7 +45943,7 @@
         <v>44893</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46000,7 +46000,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44894</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46238,7 +46238,7 @@
         <v>44902</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46295,7 +46295,7 @@
         <v>44906</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46352,7 +46352,7 @@
         <v>44907</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44908</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46476,7 +46476,7 @@
         <v>44909</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>44911</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>44916</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46662,7 +46662,7 @@
         <v>44929</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46719,7 +46719,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>44930</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>44939</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47071,7 +47071,7 @@
         <v>44945</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47195,7 +47195,7 @@
         <v>44950</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47252,7 +47252,7 @@
         <v>44951</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47314,7 +47314,7 @@
         <v>44954</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47376,7 +47376,7 @@
         <v>44955</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47433,7 +47433,7 @@
         <v>44956</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         <v>44960</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47547,7 +47547,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47604,7 +47604,7 @@
         <v>44964</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47661,7 +47661,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47723,7 +47723,7 @@
         <v>44972</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47780,7 +47780,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47837,7 +47837,7 @@
         <v>44974</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47894,7 +47894,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48065,7 +48065,7 @@
         <v>44986</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48127,7 +48127,7 @@
         <v>44988</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48184,7 +48184,7 @@
         <v>44993</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>44995</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>44996</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45000</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45001</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45002</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48878,7 +48878,7 @@
         <v>45005</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>45008</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49126,7 +49126,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49188,7 +49188,7 @@
         <v>45009</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49250,7 +49250,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49307,7 +49307,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49364,7 +49364,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49421,7 +49421,7 @@
         <v>45013</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         <v>45021</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49545,7 +49545,7 @@
         <v>45027</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49602,7 +49602,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49659,7 +49659,7 @@
         <v>45028</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49716,7 +49716,7 @@
         <v>45029</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49778,7 +49778,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49835,7 +49835,7 @@
         <v>45030</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49892,7 +49892,7 @@
         <v>45033</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49949,7 +49949,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50006,7 +50006,7 @@
         <v>45034</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50187,7 +50187,7 @@
         <v>45036</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50244,7 +50244,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         <v>45037</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50363,7 +50363,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50425,7 +50425,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50606,7 +50606,7 @@
         <v>45040</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50663,7 +50663,7 @@
         <v>45041</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50720,7 +50720,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50777,7 +50777,7 @@
         <v>45042</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>45043</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>45049</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>45050</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51362,7 +51362,7 @@
         <v>45051</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51424,7 +51424,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51486,7 +51486,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51548,7 +51548,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51605,7 +51605,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51667,7 +51667,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51729,7 +51729,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51791,7 +51791,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51853,7 +51853,7 @@
         <v>45057</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51977,7 +51977,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52034,7 +52034,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52158,7 +52158,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52215,7 +52215,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45061</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52458,7 +52458,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52515,7 +52515,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52572,7 +52572,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52634,7 +52634,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52696,7 +52696,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52758,7 +52758,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52820,7 +52820,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52877,7 +52877,7 @@
         <v>45069</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         <v>45070</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53001,7 +53001,7 @@
         <v>45071</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53063,7 +53063,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53125,7 +53125,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53187,7 +53187,7 @@
         <v>45072</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53249,7 +53249,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53311,7 +53311,7 @@
         <v>45075</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53373,7 +53373,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53435,7 +53435,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53497,7 +53497,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53559,7 +53559,7 @@
         <v>45077</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53621,7 +53621,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53683,7 +53683,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53745,7 +53745,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53807,7 +53807,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53864,7 +53864,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53921,7 +53921,7 @@
         <v>45079</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53978,7 +53978,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54040,7 +54040,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54097,7 +54097,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54159,7 +54159,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54221,7 +54221,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54283,7 +54283,7 @@
         <v>45085</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54340,7 +54340,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54402,7 +54402,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54459,7 +54459,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54521,7 +54521,7 @@
         <v>45087</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54583,7 +54583,7 @@
         <v>45088</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54640,7 +54640,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54702,7 +54702,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54764,7 +54764,7 @@
         <v>45089</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54826,7 +54826,7 @@
         <v>45090</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54888,7 +54888,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54950,7 +54950,7 @@
         <v>45091</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -55012,7 +55012,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55069,7 +55069,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55126,7 +55126,7 @@
         <v>45096</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55183,7 +55183,7 @@
         <v>45099</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55245,7 +55245,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55302,7 +55302,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55359,7 +55359,7 @@
         <v>45104</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55416,7 +55416,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55478,7 +55478,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55602,7 +55602,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55659,7 +55659,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55716,7 +55716,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55830,7 +55830,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55892,7 +55892,7 @@
         <v>45112</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55954,7 +55954,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -56016,7 +56016,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56078,7 +56078,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56140,7 +56140,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56202,7 +56202,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56264,7 +56264,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56326,7 +56326,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56383,7 +56383,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56445,7 +56445,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56507,7 +56507,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56564,7 +56564,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56745,7 +56745,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56802,7 +56802,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56859,7 +56859,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56916,7 +56916,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56973,7 +56973,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -57035,7 +57035,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57097,7 +57097,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57154,7 +57154,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57211,7 +57211,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57268,7 +57268,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>44803</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43739</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44606</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43612</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43735</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44068</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44895</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44951</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45057</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43759</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>43895</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43700</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43977</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43977</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44062</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44348</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>44693</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43700</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43951</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44344</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44393</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44477</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44588</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44628</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44839</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44876</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43623</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43729</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43775</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43797</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44060</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>44390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>44500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44587</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44743</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44762</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44774</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>44782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44830</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>44833</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>44865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44865</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44883</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44907</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>45013</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>45049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>45051</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45093</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>45103</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45105</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>43621</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>43730</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43735</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44042</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44151</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44309</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44368</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44530</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44655</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44659</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44720</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44796</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44844</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44862</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44872</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44876</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44918</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44930</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44996</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45028</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>45049</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45051</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45057</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>45058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45069</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45072</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45092</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45112</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43325</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43341</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43392</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43392</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43392</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43392</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43397</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43398</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43403</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43403</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43413</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43415</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43416</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43417</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43425</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>43433</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43437</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43438</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>43445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>43447</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43462</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43483</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43497</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>43501</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>43503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>43508</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>43509</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>43529</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>43535</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43542</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>43543</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>43545</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>43556</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>43567</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43567</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43571</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43571</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>43572</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43572</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43578</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43578</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43580</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43580</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>43580</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43581</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>43581</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43589</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>43594</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>43594</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43598</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43602</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>43609</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43612</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43614</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43633</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43636</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>43640</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>43647</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43651</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>43654</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43659</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43668</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>43675</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43676</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43677</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43686</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43689</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>43691</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43697</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43697</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43698</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43705</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>43705</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43713</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43714</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43714</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>43720</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>43731</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43735</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43735</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43739</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43739</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>43748</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>43759</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>43762</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43776</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43777</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>43780</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>43782</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43796</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43797</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43801</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43810</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43826</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43833</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43840</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43868</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>43872</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>43872</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>43872</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>43881</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43906</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43913</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>43913</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>43920</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>43921</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>43921</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43924</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>43927</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>43937</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>43943</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>43945</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43948</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>43955</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>43955</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>43959</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>43962</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>43976</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>43976</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>43980</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>43984</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>43984</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>43985</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43985</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>43991</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>43997</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>43997</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44004</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44007</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44007</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44007</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44011</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>44012</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44013</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44015</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44018</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44021</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44026</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44034</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44034</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44036</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44036</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44041</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>44046</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44046</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44046</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>44050</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44054</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24834,7 +24834,7 @@
         <v>44057</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44057</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>44057</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44060</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44061</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44062</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44062</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44062</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44063</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44063</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>44063</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>44067</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44067</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44071</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44071</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44075</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44075</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44075</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>44078</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>44083</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44084</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>44088</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>44090</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>44098</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44098</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>44098</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44099</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44103</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44104</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44124</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44124</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>44126</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44130</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>44131</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44131</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44131</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44137</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44137</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44137</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>44138</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44140</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44154</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44154</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44154</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44158</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44158</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>44161</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44162</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44168</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44168</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>44169</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>44176</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>44181</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>44181</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>44181</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
         <v>44186</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>44187</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>44207</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>44209</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>44215</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>44215</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30016,7 +30016,7 @@
         <v>44215</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>44216</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>44224</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>44229</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44230</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44231</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>44232</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>44254</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>44258</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         <v>44260</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44273</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44277</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>44280</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44287</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30869,7 +30869,7 @@
         <v>44291</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30926,7 +30926,7 @@
         <v>44293</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31040,7 +31040,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31097,7 +31097,7 @@
         <v>44295</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31154,7 +31154,7 @@
         <v>44301</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44316</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44319</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44320</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44321</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44323</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44328</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44334</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44336</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         <v>44341</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>44344</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>44348</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44348</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44350</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>44350</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44356</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44356</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44357</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>44357</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32389,7 +32389,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32451,7 +32451,7 @@
         <v>44361</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32508,7 +32508,7 @@
         <v>44361</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32570,7 +32570,7 @@
         <v>44362</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>44362</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44363</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44363</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44368</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44371</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44376</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44382</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44392</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44397</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44397</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>44398</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44403</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44405</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>44405</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>44411</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>44417</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44424</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44426</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44433</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44434</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44434</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>44445</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44445</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>44446</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>44447</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>44448</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34509,7 +34509,7 @@
         <v>44455</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>44463</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>44468</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34690,7 +34690,7 @@
         <v>44469</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34747,7 +34747,7 @@
         <v>44470</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>44477</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44480</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44487</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>44487</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44488</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44503</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
         <v>44504</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35627,7 +35627,7 @@
         <v>44508</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35684,7 +35684,7 @@
         <v>44508</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>44517</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>44518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44526</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44526</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36041,7 +36041,7 @@
         <v>44529</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>44529</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>44537</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36269,7 +36269,7 @@
         <v>44537</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>44540</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>44540</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44546</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>44546</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44550</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44571</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44572</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36896,7 +36896,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44574</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44580</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>44582</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>44586</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44589</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>44590</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>44594</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44601</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44601</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>44609</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>44610</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>44623</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>44623</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>44627</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>44628</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>44637</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>44638</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>44638</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>44657</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44657</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>44679</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>44679</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>44683</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44685</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>44690</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>44690</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>44691</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>44693</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         <v>44697</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>44699</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44700</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44700</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44706</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39598,7 +39598,7 @@
         <v>44706</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39655,7 +39655,7 @@
         <v>44717</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         <v>44720</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39779,7 +39779,7 @@
         <v>44720</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44721</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44726</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39965,7 +39965,7 @@
         <v>44727</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40027,7 +40027,7 @@
         <v>44727</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40089,7 +40089,7 @@
         <v>44729</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40151,7 +40151,7 @@
         <v>44733</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>44734</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>44734</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>44738</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44739</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44746</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40585,7 +40585,7 @@
         <v>44761</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40647,7 +40647,7 @@
         <v>44761</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44764</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40833,7 +40833,7 @@
         <v>44774</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44776</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44777</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44779</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41138,7 +41138,7 @@
         <v>44788</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44788</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44789</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44792</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>44803</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>44803</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41795,7 +41795,7 @@
         <v>44804</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44805</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>44806</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>44806</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42152,7 +42152,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44818</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44818</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44819</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44820</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44820</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42581,7 +42581,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         <v>44830</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44830</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>44831</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44833</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44834</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42948,7 +42948,7 @@
         <v>44837</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43010,7 +43010,7 @@
         <v>44837</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43072,7 +43072,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43129,7 +43129,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43191,7 +43191,7 @@
         <v>44840</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43253,7 +43253,7 @@
         <v>44840</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43315,7 +43315,7 @@
         <v>44841</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43372,7 +43372,7 @@
         <v>44844</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43496,7 +43496,7 @@
         <v>44845</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43553,7 +43553,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43615,7 +43615,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43672,7 +43672,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43729,7 +43729,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43786,7 +43786,7 @@
         <v>44848</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43843,7 +43843,7 @@
         <v>44849</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43905,7 +43905,7 @@
         <v>44851</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43962,7 +43962,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44852</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44086,7 +44086,7 @@
         <v>44853</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44148,7 +44148,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44205,7 +44205,7 @@
         <v>44859</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44262,7 +44262,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>44862</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44448,7 +44448,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44865</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44567,7 +44567,7 @@
         <v>44866</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44629,7 +44629,7 @@
         <v>44867</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44691,7 +44691,7 @@
         <v>44869</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44753,7 +44753,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44810,7 +44810,7 @@
         <v>44872</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44873</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44874</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45043,7 +45043,7 @@
         <v>44875</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45105,7 +45105,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45167,7 +45167,7 @@
         <v>44876</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45229,7 +45229,7 @@
         <v>44879</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45286,7 +45286,7 @@
         <v>44880</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
         <v>44881</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45472,7 +45472,7 @@
         <v>44882</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45529,7 +45529,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45591,7 +45591,7 @@
         <v>44883</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45648,7 +45648,7 @@
         <v>44886</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45705,7 +45705,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45762,7 +45762,7 @@
         <v>44887</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45824,7 +45824,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45881,7 +45881,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45943,7 +45943,7 @@
         <v>44893</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46000,7 +46000,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44894</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46238,7 +46238,7 @@
         <v>44902</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46295,7 +46295,7 @@
         <v>44906</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46352,7 +46352,7 @@
         <v>44907</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44908</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46476,7 +46476,7 @@
         <v>44909</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>44911</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>44916</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46662,7 +46662,7 @@
         <v>44929</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46719,7 +46719,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>44930</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>44939</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47071,7 +47071,7 @@
         <v>44945</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47195,7 +47195,7 @@
         <v>44950</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47252,7 +47252,7 @@
         <v>44951</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47314,7 +47314,7 @@
         <v>44954</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47376,7 +47376,7 @@
         <v>44955</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47433,7 +47433,7 @@
         <v>44956</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         <v>44960</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47547,7 +47547,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47604,7 +47604,7 @@
         <v>44964</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47661,7 +47661,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47723,7 +47723,7 @@
         <v>44972</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47780,7 +47780,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47837,7 +47837,7 @@
         <v>44974</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47894,7 +47894,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48065,7 +48065,7 @@
         <v>44986</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48127,7 +48127,7 @@
         <v>44988</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48184,7 +48184,7 @@
         <v>44993</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>44995</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>44996</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45000</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45001</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45002</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48878,7 +48878,7 @@
         <v>45005</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>45008</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49126,7 +49126,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49188,7 +49188,7 @@
         <v>45009</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49250,7 +49250,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49307,7 +49307,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49364,7 +49364,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49421,7 +49421,7 @@
         <v>45013</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         <v>45021</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49545,7 +49545,7 @@
         <v>45027</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49602,7 +49602,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49659,7 +49659,7 @@
         <v>45028</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49716,7 +49716,7 @@
         <v>45029</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49778,7 +49778,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49835,7 +49835,7 @@
         <v>45030</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49892,7 +49892,7 @@
         <v>45033</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49949,7 +49949,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50006,7 +50006,7 @@
         <v>45034</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50187,7 +50187,7 @@
         <v>45036</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50244,7 +50244,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         <v>45037</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50363,7 +50363,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50425,7 +50425,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50606,7 +50606,7 @@
         <v>45040</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50663,7 +50663,7 @@
         <v>45041</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50720,7 +50720,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50777,7 +50777,7 @@
         <v>45042</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>45043</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>45049</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>45050</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51362,7 +51362,7 @@
         <v>45051</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51424,7 +51424,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51486,7 +51486,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51548,7 +51548,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51605,7 +51605,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51667,7 +51667,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51729,7 +51729,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51791,7 +51791,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51853,7 +51853,7 @@
         <v>45057</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51977,7 +51977,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52034,7 +52034,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52158,7 +52158,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52215,7 +52215,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45061</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52458,7 +52458,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52515,7 +52515,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52572,7 +52572,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52634,7 +52634,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52696,7 +52696,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52758,7 +52758,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52820,7 +52820,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52877,7 +52877,7 @@
         <v>45069</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         <v>45070</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53001,7 +53001,7 @@
         <v>45071</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53063,7 +53063,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53125,7 +53125,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53187,7 +53187,7 @@
         <v>45072</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53249,7 +53249,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53311,7 +53311,7 @@
         <v>45075</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53373,7 +53373,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53435,7 +53435,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53497,7 +53497,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53559,7 +53559,7 @@
         <v>45077</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53621,7 +53621,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53683,7 +53683,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53745,7 +53745,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53807,7 +53807,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53864,7 +53864,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53921,7 +53921,7 @@
         <v>45079</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53978,7 +53978,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54040,7 +54040,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54097,7 +54097,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54159,7 +54159,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54221,7 +54221,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54283,7 +54283,7 @@
         <v>45085</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54340,7 +54340,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54402,7 +54402,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54459,7 +54459,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54521,7 +54521,7 @@
         <v>45087</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54583,7 +54583,7 @@
         <v>45088</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54640,7 +54640,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54702,7 +54702,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54764,7 +54764,7 @@
         <v>45089</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54826,7 +54826,7 @@
         <v>45090</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54888,7 +54888,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54950,7 +54950,7 @@
         <v>45091</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -55012,7 +55012,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55069,7 +55069,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55126,7 +55126,7 @@
         <v>45096</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55183,7 +55183,7 @@
         <v>45099</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55245,7 +55245,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55302,7 +55302,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55359,7 +55359,7 @@
         <v>45104</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55416,7 +55416,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55478,7 +55478,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55602,7 +55602,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55659,7 +55659,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55716,7 +55716,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55830,7 +55830,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55892,7 +55892,7 @@
         <v>45112</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55954,7 +55954,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -56016,7 +56016,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56078,7 +56078,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56140,7 +56140,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56202,7 +56202,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56264,7 +56264,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56326,7 +56326,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56383,7 +56383,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56445,7 +56445,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56507,7 +56507,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56564,7 +56564,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56745,7 +56745,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56802,7 +56802,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56859,7 +56859,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56916,7 +56916,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56973,7 +56973,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -57035,7 +57035,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57097,7 +57097,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57154,7 +57154,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57211,7 +57211,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57268,7 +57268,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>44803</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43739</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44606</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43612</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43735</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44068</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44895</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44951</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45057</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43759</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>43895</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43700</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43977</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43977</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44062</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44348</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>44693</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43700</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43951</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44344</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44393</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44477</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44588</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44628</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44839</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44876</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43623</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43729</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43775</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43797</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44060</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>44390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>44500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44587</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44743</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44762</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44774</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>44782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44830</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>44833</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>44865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44865</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44883</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44907</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>45013</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>45049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>45051</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45093</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>45103</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45105</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>43621</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>43730</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43735</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44042</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44151</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44309</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44368</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44530</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44655</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44659</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44720</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44796</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44844</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44862</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44872</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44876</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44918</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44930</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44996</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45028</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>45049</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45051</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45057</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>45058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45069</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45072</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45092</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45112</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43325</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43341</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43392</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43392</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43392</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43392</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43397</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43398</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43403</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43403</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43413</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43415</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43416</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43417</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43425</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>43433</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43437</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43438</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>43445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>43447</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43462</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43483</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43497</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>43501</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>43503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>43508</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>43509</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>43529</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>43535</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43542</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>43543</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>43545</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>43556</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>43567</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43567</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43571</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43571</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>43572</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43572</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43578</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43578</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43580</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43580</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>43580</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43581</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>43581</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43589</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>43594</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>43594</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43598</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43602</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>43609</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43612</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43614</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43633</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43636</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>43640</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>43647</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43651</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>43654</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43659</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43668</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>43675</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43676</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43677</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43686</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43689</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>43691</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43697</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43697</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43698</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43705</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>43705</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43713</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43714</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43714</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>43720</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>43731</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43735</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43735</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43739</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43739</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>43748</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>43759</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>43762</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43776</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43777</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>43780</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>43782</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43796</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43797</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43801</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43810</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43826</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43833</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43840</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43868</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>43872</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>43872</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>43872</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>43881</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43906</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43913</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>43913</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>43920</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>43921</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>43921</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43924</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>43927</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>43937</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>43943</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>43945</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43948</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>43955</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>43955</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>43959</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>43962</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>43976</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>43976</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>43980</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>43984</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>43984</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>43985</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43985</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>43991</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>43997</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>43997</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44004</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44007</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44007</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44007</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44011</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>44012</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44013</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44015</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44018</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44021</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44026</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44034</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44034</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44036</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44036</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44041</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>44046</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44046</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44046</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>44050</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44054</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24834,7 +24834,7 @@
         <v>44057</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44057</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>44057</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44060</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44061</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44062</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44062</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44062</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44063</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44063</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>44063</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>44067</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44067</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44071</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44071</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44075</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44075</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44075</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>44078</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>44083</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44084</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>44088</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>44090</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>44098</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44098</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>44098</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44099</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44103</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44104</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44124</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44124</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>44126</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44130</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>44131</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44131</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44131</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44137</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44137</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44137</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>44138</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44140</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44154</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44154</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44154</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44158</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44158</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>44161</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44162</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44168</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44168</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>44169</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>44176</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>44181</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>44181</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>44181</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
         <v>44186</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>44187</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>44207</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>44209</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>44215</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>44215</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30016,7 +30016,7 @@
         <v>44215</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>44216</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>44224</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>44229</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44230</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44231</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>44232</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>44254</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>44258</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         <v>44260</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44273</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44277</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>44280</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44287</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30869,7 +30869,7 @@
         <v>44291</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30926,7 +30926,7 @@
         <v>44293</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31040,7 +31040,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31097,7 +31097,7 @@
         <v>44295</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31154,7 +31154,7 @@
         <v>44301</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44316</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44319</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44320</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44321</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44323</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44328</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44334</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44336</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         <v>44341</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>44344</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>44348</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44348</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44350</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>44350</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44356</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44356</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44357</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>44357</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32389,7 +32389,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32451,7 +32451,7 @@
         <v>44361</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32508,7 +32508,7 @@
         <v>44361</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32570,7 +32570,7 @@
         <v>44362</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>44362</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44363</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44363</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44368</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44371</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44376</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44382</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44392</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44397</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44397</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>44398</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44403</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44405</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>44405</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>44411</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>44417</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44424</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44426</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44433</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44434</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44434</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>44445</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44445</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>44446</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>44447</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>44448</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34509,7 +34509,7 @@
         <v>44455</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>44463</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>44468</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34690,7 +34690,7 @@
         <v>44469</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34747,7 +34747,7 @@
         <v>44470</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>44477</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44480</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44487</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>44487</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44488</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44503</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
         <v>44504</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35627,7 +35627,7 @@
         <v>44508</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35684,7 +35684,7 @@
         <v>44508</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>44517</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>44518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44526</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44526</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36041,7 +36041,7 @@
         <v>44529</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>44529</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>44537</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36269,7 +36269,7 @@
         <v>44537</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>44540</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>44540</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44546</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>44546</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44550</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44571</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44572</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36896,7 +36896,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44574</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44580</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>44582</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>44586</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44589</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>44590</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>44594</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44601</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44601</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>44609</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>44610</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>44623</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>44623</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>44627</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>44628</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>44637</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>44638</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>44638</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>44657</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44657</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>44679</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>44679</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>44683</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44685</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>44690</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>44690</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>44691</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>44693</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         <v>44697</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>44699</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44700</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44700</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44706</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39598,7 +39598,7 @@
         <v>44706</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39655,7 +39655,7 @@
         <v>44717</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         <v>44720</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39779,7 +39779,7 @@
         <v>44720</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44721</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44726</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39965,7 +39965,7 @@
         <v>44727</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40027,7 +40027,7 @@
         <v>44727</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40089,7 +40089,7 @@
         <v>44729</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40151,7 +40151,7 @@
         <v>44733</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>44734</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>44734</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>44738</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44739</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44746</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40585,7 +40585,7 @@
         <v>44761</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40647,7 +40647,7 @@
         <v>44761</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44764</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40833,7 +40833,7 @@
         <v>44774</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44776</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44777</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44779</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41138,7 +41138,7 @@
         <v>44788</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44788</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44789</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44792</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>44803</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>44803</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41795,7 +41795,7 @@
         <v>44804</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44805</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>44806</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>44806</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>44818</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42152,7 +42152,7 @@
         <v>44818</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44818</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44818</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44819</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44820</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44820</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44823</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42581,7 +42581,7 @@
         <v>44827</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         <v>44830</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44830</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>44831</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44833</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44834</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42948,7 +42948,7 @@
         <v>44837</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43010,7 +43010,7 @@
         <v>44837</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43072,7 +43072,7 @@
         <v>44840</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43129,7 +43129,7 @@
         <v>44840</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43191,7 +43191,7 @@
         <v>44840</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43253,7 +43253,7 @@
         <v>44840</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43315,7 +43315,7 @@
         <v>44841</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43372,7 +43372,7 @@
         <v>44844</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>44845</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43496,7 +43496,7 @@
         <v>44845</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43553,7 +43553,7 @@
         <v>44845</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43615,7 +43615,7 @@
         <v>44848</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43672,7 +43672,7 @@
         <v>44848</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43729,7 +43729,7 @@
         <v>44848</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43786,7 +43786,7 @@
         <v>44848</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43843,7 +43843,7 @@
         <v>44849</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43905,7 +43905,7 @@
         <v>44851</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43962,7 +43962,7 @@
         <v>44852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>44852</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44086,7 +44086,7 @@
         <v>44853</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44148,7 +44148,7 @@
         <v>44859</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44205,7 +44205,7 @@
         <v>44859</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44262,7 +44262,7 @@
         <v>44862</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>44862</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>44862</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44448,7 +44448,7 @@
         <v>44865</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44505,7 +44505,7 @@
         <v>44865</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44567,7 +44567,7 @@
         <v>44866</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44629,7 +44629,7 @@
         <v>44867</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44691,7 +44691,7 @@
         <v>44869</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44753,7 +44753,7 @@
         <v>44872</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44810,7 +44810,7 @@
         <v>44872</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44867,7 +44867,7 @@
         <v>44873</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44924,7 +44924,7 @@
         <v>44874</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44981,7 +44981,7 @@
         <v>44874</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45043,7 +45043,7 @@
         <v>44875</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45105,7 +45105,7 @@
         <v>44876</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45167,7 +45167,7 @@
         <v>44876</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45229,7 +45229,7 @@
         <v>44879</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45286,7 +45286,7 @@
         <v>44880</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
         <v>44881</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>44882</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45472,7 +45472,7 @@
         <v>44882</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45529,7 +45529,7 @@
         <v>44883</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45591,7 +45591,7 @@
         <v>44883</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45648,7 +45648,7 @@
         <v>44886</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45705,7 +45705,7 @@
         <v>44887</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45762,7 +45762,7 @@
         <v>44887</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45824,7 +45824,7 @@
         <v>44893</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45881,7 +45881,7 @@
         <v>44893</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45943,7 +45943,7 @@
         <v>44893</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46000,7 +46000,7 @@
         <v>44894</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>44894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46124,7 +46124,7 @@
         <v>44894</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46181,7 +46181,7 @@
         <v>44902</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46238,7 +46238,7 @@
         <v>44902</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46295,7 +46295,7 @@
         <v>44906</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46352,7 +46352,7 @@
         <v>44907</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46414,7 +46414,7 @@
         <v>44908</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46476,7 +46476,7 @@
         <v>44909</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>44911</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>44916</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46662,7 +46662,7 @@
         <v>44929</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46719,7 +46719,7 @@
         <v>44930</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46776,7 +46776,7 @@
         <v>44930</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46833,7 +46833,7 @@
         <v>44930</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>44930</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>44939</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>44945</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47071,7 +47071,7 @@
         <v>44945</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47133,7 +47133,7 @@
         <v>44950</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47195,7 +47195,7 @@
         <v>44950</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47252,7 +47252,7 @@
         <v>44951</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47314,7 +47314,7 @@
         <v>44954</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47376,7 +47376,7 @@
         <v>44955</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47433,7 +47433,7 @@
         <v>44956</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         <v>44960</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47547,7 +47547,7 @@
         <v>44964</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47604,7 +47604,7 @@
         <v>44964</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47661,7 +47661,7 @@
         <v>44967</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47723,7 +47723,7 @@
         <v>44972</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47780,7 +47780,7 @@
         <v>44974</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47837,7 +47837,7 @@
         <v>44974</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47894,7 +47894,7 @@
         <v>44977</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47951,7 +47951,7 @@
         <v>44978</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         <v>44978</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48065,7 +48065,7 @@
         <v>44986</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48127,7 +48127,7 @@
         <v>44988</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48184,7 +48184,7 @@
         <v>44993</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>44995</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>44995</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>44995</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>44996</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>44996</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>45000</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>45001</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45001</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45001</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45002</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>45002</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48878,7 +48878,7 @@
         <v>45005</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>45008</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>45009</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45009</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49126,7 +49126,7 @@
         <v>45009</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49188,7 +49188,7 @@
         <v>45009</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49250,7 +49250,7 @@
         <v>45012</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49307,7 +49307,7 @@
         <v>45012</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49364,7 +49364,7 @@
         <v>45012</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49421,7 +49421,7 @@
         <v>45013</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         <v>45021</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49545,7 +49545,7 @@
         <v>45027</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49602,7 +49602,7 @@
         <v>45028</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49659,7 +49659,7 @@
         <v>45028</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49716,7 +49716,7 @@
         <v>45029</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49778,7 +49778,7 @@
         <v>45030</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49835,7 +49835,7 @@
         <v>45030</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49892,7 +49892,7 @@
         <v>45033</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49949,7 +49949,7 @@
         <v>45034</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50006,7 +50006,7 @@
         <v>45034</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50068,7 +50068,7 @@
         <v>45036</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45036</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50187,7 +50187,7 @@
         <v>45036</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50244,7 +50244,7 @@
         <v>45037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         <v>45037</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50363,7 +50363,7 @@
         <v>45040</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50425,7 +50425,7 @@
         <v>45040</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50487,7 +50487,7 @@
         <v>45040</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>45040</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50606,7 +50606,7 @@
         <v>45040</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50663,7 +50663,7 @@
         <v>45041</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50720,7 +50720,7 @@
         <v>45042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50777,7 +50777,7 @@
         <v>45042</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50839,7 +50839,7 @@
         <v>45043</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50896,7 +50896,7 @@
         <v>45049</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50953,7 +50953,7 @@
         <v>45049</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51010,7 +51010,7 @@
         <v>45049</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         <v>45049</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
         <v>45050</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51181,7 +51181,7 @@
         <v>45051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51243,7 +51243,7 @@
         <v>45051</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51300,7 +51300,7 @@
         <v>45051</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51362,7 +51362,7 @@
         <v>45051</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51424,7 +51424,7 @@
         <v>45057</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51486,7 +51486,7 @@
         <v>45057</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51548,7 +51548,7 @@
         <v>45057</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51605,7 +51605,7 @@
         <v>45057</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51667,7 +51667,7 @@
         <v>45057</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51729,7 +51729,7 @@
         <v>45057</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51791,7 +51791,7 @@
         <v>45057</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51853,7 +51853,7 @@
         <v>45057</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45058</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51977,7 +51977,7 @@
         <v>45058</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52034,7 +52034,7 @@
         <v>45058</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>45058</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52158,7 +52158,7 @@
         <v>45058</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52215,7 +52215,7 @@
         <v>45058</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52277,7 +52277,7 @@
         <v>45058</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52339,7 +52339,7 @@
         <v>45061</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52396,7 +52396,7 @@
         <v>45061</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52458,7 +52458,7 @@
         <v>45062</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52515,7 +52515,7 @@
         <v>45062</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52572,7 +52572,7 @@
         <v>45065</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52634,7 +52634,7 @@
         <v>45065</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52696,7 +52696,7 @@
         <v>45068</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52758,7 +52758,7 @@
         <v>45069</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52820,7 +52820,7 @@
         <v>45069</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52877,7 +52877,7 @@
         <v>45069</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         <v>45070</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53001,7 +53001,7 @@
         <v>45071</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53063,7 +53063,7 @@
         <v>45072</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53125,7 +53125,7 @@
         <v>45072</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53187,7 +53187,7 @@
         <v>45072</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53249,7 +53249,7 @@
         <v>45075</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53311,7 +53311,7 @@
         <v>45075</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53373,7 +53373,7 @@
         <v>45077</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53435,7 +53435,7 @@
         <v>45077</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53497,7 +53497,7 @@
         <v>45077</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53559,7 +53559,7 @@
         <v>45077</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53621,7 +53621,7 @@
         <v>45078</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53683,7 +53683,7 @@
         <v>45078</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53745,7 +53745,7 @@
         <v>45078</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53807,7 +53807,7 @@
         <v>45079</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53864,7 +53864,7 @@
         <v>45079</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53921,7 +53921,7 @@
         <v>45079</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53978,7 +53978,7 @@
         <v>45082</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54040,7 +54040,7 @@
         <v>45085</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54097,7 +54097,7 @@
         <v>45085</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54159,7 +54159,7 @@
         <v>45085</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54221,7 +54221,7 @@
         <v>45085</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54283,7 +54283,7 @@
         <v>45085</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54340,7 +54340,7 @@
         <v>45086</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54402,7 +54402,7 @@
         <v>45086</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54459,7 +54459,7 @@
         <v>45087</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54521,7 +54521,7 @@
         <v>45087</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54583,7 +54583,7 @@
         <v>45088</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54640,7 +54640,7 @@
         <v>45089</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54702,7 +54702,7 @@
         <v>45089</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54764,7 +54764,7 @@
         <v>45089</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54826,7 +54826,7 @@
         <v>45090</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54888,7 +54888,7 @@
         <v>45091</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54950,7 +54950,7 @@
         <v>45091</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -55012,7 +55012,7 @@
         <v>45096</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55069,7 +55069,7 @@
         <v>45096</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55126,7 +55126,7 @@
         <v>45096</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55183,7 +55183,7 @@
         <v>45099</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55245,7 +55245,7 @@
         <v>45104</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55302,7 +55302,7 @@
         <v>45104</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55359,7 +55359,7 @@
         <v>45104</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55416,7 +55416,7 @@
         <v>45105</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55478,7 +55478,7 @@
         <v>45105</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55540,7 +55540,7 @@
         <v>45105</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55602,7 +55602,7 @@
         <v>45107</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55659,7 +55659,7 @@
         <v>45107</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55716,7 +55716,7 @@
         <v>45107</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55830,7 +55830,7 @@
         <v>45110</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55892,7 +55892,7 @@
         <v>45112</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55954,7 +55954,7 @@
         <v>45120</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -56016,7 +56016,7 @@
         <v>45120</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56078,7 +56078,7 @@
         <v>45120</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56140,7 +56140,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56202,7 +56202,7 @@
         <v>45140</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56264,7 +56264,7 @@
         <v>45140</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56326,7 +56326,7 @@
         <v>45142</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56383,7 +56383,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56445,7 +56445,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56507,7 +56507,7 @@
         <v>45146</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56564,7 +56564,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         <v>45147</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         <v>45147</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56745,7 +56745,7 @@
         <v>45147</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56802,7 +56802,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56859,7 +56859,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56916,7 +56916,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56973,7 +56973,7 @@
         <v>45153</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -57035,7 +57035,7 @@
         <v>45154</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57097,7 +57097,7 @@
         <v>45162</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57154,7 +57154,7 @@
         <v>45162</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57211,7 +57211,7 @@
         <v>45162</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57268,7 +57268,7 @@
         <v>45163</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt BRÄCKE.xlsx
+++ b/Översikt BRÄCKE.xlsx
@@ -572,7 +572,7 @@
         <v>44062</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>44165</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44048</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44690</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>44951</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45107</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44067</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>44803</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43739</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44606</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43612</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43735</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44068</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44895</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44951</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45057</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44861</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43759</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>43895</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>43700</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43977</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43977</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44062</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44348</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>44693</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44790</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43700</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43951</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44068</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44344</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44393</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44477</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44588</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>44628</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>44839</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44876</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43623</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43729</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43775</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43797</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44060</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44356</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>44390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>44412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>44500</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44587</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44743</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44762</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>44774</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>44782</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44830</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>44833</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>44859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>44865</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>44865</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>44883</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44907</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>45013</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>45049</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>45051</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45093</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>45103</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45105</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>43621</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43728</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>43730</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43735</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44042</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44151</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
         <v>44309</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44368</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>44530</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44655</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44659</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44720</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44726</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44742</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44796</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44844</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44862</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44872</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44876</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44918</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44930</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44996</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45028</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>45049</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45051</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45057</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>45058</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>45069</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45072</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45092</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45112</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43325</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43341</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43392</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43392</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43392</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>43392</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>43397</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43398</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43403</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43403</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43413</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43413</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>43415</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>43416</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>43417</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>43418</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>43420</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43425</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>43432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>43433</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>43437</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>43438</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>43445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>43447</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>43462</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>43483</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>43497</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>43501</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>43503</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>43508</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>43509</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>43529</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>43535</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43542</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>43543</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>43545</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>43556</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>43565</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>43567</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>43567</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43570</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>43571</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>43571</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>43572</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43572</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>43573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>43578</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43578</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43580</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43580</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>43580</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>43581</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>43581</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43589</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>43594</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>43594</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43598</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>43602</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>43609</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43612</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43614</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43633</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43633</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>43635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>43635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43636</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43640</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>43640</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>43647</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>43651</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>43654</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>43659</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>43664</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>43668</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>43675</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43676</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43677</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43686</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>43689</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>43691</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43696</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>43697</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>43697</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>43697</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>43698</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>43699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>43705</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>43705</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>43705</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43713</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43714</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43714</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>43720</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>43731</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43735</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43735</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>43735</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>43739</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>43739</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>43739</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>43748</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>43759</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>43762</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43768</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43770</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43776</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43777</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>43780</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>43782</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43782</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43796</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43797</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43801</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>43808</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43810</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43826</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>43833</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43840</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43868</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>43872</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>43872</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>43872</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>43881</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>43906</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>43913</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>43913</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>43920</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>43921</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>43921</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>43924</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>43927</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>43937</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>43943</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>43945</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>43948</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>43955</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>43955</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>43959</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>43962</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>43976</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>43976</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>43978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>43980</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>43984</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>43984</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>43985</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43985</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43991</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>43991</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>43997</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>43997</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44004</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44004</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44005</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44007</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44007</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44007</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44007</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44007</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44011</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>44012</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44013</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44015</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44018</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44021</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44026</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44034</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44034</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44036</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44036</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44041</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44041</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44042</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44046</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>44046</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44046</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44046</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>44050</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44054</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44057</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24834,7 +24834,7 @@
         <v>44057</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44057</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>44057</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44060</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44061</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44062</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44062</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44062</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44063</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44063</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>44063</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>44067</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25573,7 +25573,7 @@
         <v>44067</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25630,7 +25630,7 @@
         <v>44068</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44071</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44071</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44075</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>44075</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44075</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>44078</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>44078</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>44083</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44084</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>44088</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>44090</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>44098</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44098</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>44098</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26654,7 +26654,7 @@
         <v>44099</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44103</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44104</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>44111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>44120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44124</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>44124</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>44126</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44130</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>44131</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>44131</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44131</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44131</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44137</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>44137</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44137</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44137</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44137</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>44137</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>44137</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>44137</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44137</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44137</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44137</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44137</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>44138</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44140</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44154</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44154</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44154</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44154</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44158</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>44158</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>44161</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>44162</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>44168</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44168</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>44169</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>44169</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>44176</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>44179</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>44181</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>44181</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>44181</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>44181</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
         <v>44186</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>44187</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>44207</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>44209</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29892,7 +29892,7 @@
         <v>44215</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>44215</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30016,7 +30016,7 @@
         <v>44215</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>44216</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>44224</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>44229</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44230</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44231</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>44232</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>44254</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>44258</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         <v>44260</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44273</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44277</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>44280</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44287</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30869,7 +30869,7 @@
         <v>44291</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30926,7 +30926,7 @@
         <v>44293</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31040,7 +31040,7 @@
         <v>44294</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31097,7 +31097,7 @@
         <v>44295</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31154,7 +31154,7 @@
         <v>44301</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44308</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44316</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44319</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44320</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44321</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>44323</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44328</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>44334</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44336</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         <v>44341</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31816,7 +31816,7 @@
         <v>44344</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31873,7 +31873,7 @@
         <v>44348</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44348</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44350</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         <v>44350</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44356</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>44356</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>44357</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>44357</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32389,7 +32389,7 @@
         <v>44361</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32451,7 +32451,7 @@
         <v>44361</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32508,7 +32508,7 @@
         <v>44361</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32570,7 +32570,7 @@
         <v>44362</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32632,7 +32632,7 @@
         <v>44362</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32694,7 +32694,7 @@
         <v>44363</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32751,7 +32751,7 @@
         <v>44363</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32808,7 +32808,7 @@
         <v>44368</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32865,7 +32865,7 @@
         <v>44371</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44376</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44382</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44392</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>44397</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44397</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>44398</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44403</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         <v>44405</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44405</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>44405</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>44411</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>44417</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44424</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44426</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44433</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44434</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44434</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>44445</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44445</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>44446</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>44447</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>44448</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34509,7 +34509,7 @@
         <v>44455</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34571,7 +34571,7 @@
         <v>44463</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>44468</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34690,7 +34690,7 @@
         <v>44469</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34747,7 +34747,7 @@
         <v>44470</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>44477</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44480</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44480</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44487</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>44487</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44488</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44503</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44503</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44504</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
         <v>44504</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35627,7 +35627,7 @@
         <v>44508</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35684,7 +35684,7 @@
         <v>44508</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35808,7 +35808,7 @@
         <v>44517</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35865,7 +35865,7 @@
         <v>44518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44526</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44526</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36041,7 +36041,7 @@
         <v>44529</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>44529</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
         <v>44537</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>44537</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36269,7 +36269,7 @@
         <v>44537</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>44540</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>44540</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>44546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36554,7 +36554,7 @@
         <v>44546</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36611,7 +36611,7 @@
         <v>44546</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36725,7 +36725,7 @@
         <v>44550</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44571</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44572</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36896,7 +36896,7 @@
         <v>44574</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>44574</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44574</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>44580</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>44582</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>44586</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44587</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44589</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>44590</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>44594</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44601</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44601</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44601</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>44609</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>44610</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44623</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>44623</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>44623</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>44623</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>44623</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>44627</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>44628</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>44637</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>44638</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>44638</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>44657</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38604,7 +38604,7 @@
         <v>44657</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>44679</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>44679</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>44683</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>44685</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>44690</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>44690</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>44690</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>44691</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>44693</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         <v>44697</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>44699</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>44700</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44700</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44700</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44706</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39598,7 +39598,7 @@
         <v>44706</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39655,7 +39655,7 @@
         <v>44717</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         <v>44720</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39779,7 +39779,7 @@
         <v>44720</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44721</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39903,7 +39903,7 @@
         <v>44726</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39965,7 +39965,7 @@
         <v>44727</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40027,7 +40027,7 @@
         <v>44727</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40089,7 +40089,7 @@
         <v>44729</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40151,7 +40151,7 @@
         <v>44733</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40213,7 +40213,7 @@
         <v>44734</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>44734</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40337,7 +40337,7 @@
         <v>44738</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40399,7 +40399,7 @@
         <v>44739</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40461,7 +40461,7 @@
         <v>44746</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40523,7 +40523,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40585,7 +40585,7 @@
         <v>44761</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40647,7 +40647,7 @@
         <v>44761</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>44764</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40833,7 +40833,7 @@
         <v>44774</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40895,7 +40895,7 @@
         <v>44776</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40957,7 +40957,7 @@
         <v>44777</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44779</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41076,7 +41076,7 @@
         <v>44788</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41138,7 +41138,7 @@
         <v>44788</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44788</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44789</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>44792</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>44797</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>44797</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>44798</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>44803</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>44803</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>44803</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41795,7 +41795,7 @@
         <v>44804</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44805</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>44806</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>44806</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>44810</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -420